--- a/thietkegiaodien.xlsx
+++ b/thietkegiaodien.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huyen Le\Desktop\Quản lý đề tài thực tập\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huyen Le\Downloads\QLDeTaiThucTap\QuanLyDeTaiTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -593,13 +593,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -617,66 +664,19 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4429,8 +4429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:BO145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BE140" sqref="BE140"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE80" sqref="AE80:BE88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4647,12 +4647,12 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
-      <c r="AI5" s="57" t="s">
+      <c r="AI5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="AJ5" s="57"/>
-      <c r="AK5" s="57"/>
-      <c r="AL5" s="57"/>
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="40"/>
+      <c r="AL5" s="40"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
@@ -4660,12 +4660,12 @@
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
       <c r="AS5" s="3"/>
-      <c r="AT5" s="57" t="s">
+      <c r="AT5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="AU5" s="57"/>
-      <c r="AV5" s="57"/>
-      <c r="AW5" s="57"/>
+      <c r="AU5" s="40"/>
+      <c r="AV5" s="40"/>
+      <c r="AW5" s="40"/>
       <c r="AX5" s="3"/>
       <c r="AY5" s="3"/>
       <c r="AZ5" s="3"/>
@@ -4872,12 +4872,12 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
         <v>3</v>
@@ -5208,48 +5208,48 @@
       <c r="AC14" s="4"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
-      <c r="AF14" s="50" t="s">
+      <c r="AF14" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AG14" s="50"/>
-      <c r="AH14" s="50" t="s">
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AI14" s="50"/>
-      <c r="AJ14" s="50" t="s">
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AK14" s="50"/>
-      <c r="AL14" s="50"/>
-      <c r="AM14" s="50"/>
-      <c r="AN14" s="50" t="s">
+      <c r="AK14" s="53"/>
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="53"/>
+      <c r="AN14" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
-      <c r="AQ14" s="50"/>
-      <c r="AR14" s="50" t="s">
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="53"/>
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="AS14" s="50"/>
-      <c r="AT14" s="50"/>
-      <c r="AU14" s="50"/>
-      <c r="AV14" s="50" t="s">
+      <c r="AS14" s="53"/>
+      <c r="AT14" s="53"/>
+      <c r="AU14" s="53"/>
+      <c r="AV14" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AW14" s="50"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="50"/>
-      <c r="AZ14" s="50" t="s">
+      <c r="AW14" s="53"/>
+      <c r="AX14" s="53"/>
+      <c r="AY14" s="53"/>
+      <c r="AZ14" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="BA14" s="50"/>
-      <c r="BB14" s="50"/>
-      <c r="BC14" s="50" t="s">
+      <c r="BA14" s="53"/>
+      <c r="BB14" s="53"/>
+      <c r="BC14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="BD14" s="50"/>
-      <c r="BE14" s="50"/>
+      <c r="BD14" s="53"/>
+      <c r="BE14" s="53"/>
       <c r="BF14" s="21"/>
     </row>
     <row r="15" spans="3:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5258,68 +5258,68 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="54" t="s">
+      <c r="I15" s="73"/>
+      <c r="J15" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="54" t="s">
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="54" t="s">
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="54" t="s">
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="W15" s="56"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="54" t="s">
+      <c r="W15" s="72"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="55"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="73"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="35"/>
-      <c r="AJ15" s="35"/>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="35"/>
-      <c r="AO15" s="35"/>
-      <c r="AP15" s="35"/>
-      <c r="AQ15" s="35"/>
-      <c r="AR15" s="35"/>
-      <c r="AS15" s="35"/>
-      <c r="AT15" s="35"/>
-      <c r="AU15" s="35"/>
-      <c r="AV15" s="35"/>
-      <c r="AW15" s="35"/>
-      <c r="AX15" s="35"/>
-      <c r="AY15" s="35"/>
-      <c r="AZ15" s="35"/>
-      <c r="BA15" s="35"/>
-      <c r="BB15" s="35"/>
-      <c r="BC15" s="35"/>
-      <c r="BD15" s="35"/>
-      <c r="BE15" s="35"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="51"/>
+      <c r="AL15" s="51"/>
+      <c r="AM15" s="51"/>
+      <c r="AN15" s="51"/>
+      <c r="AO15" s="51"/>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="51"/>
+      <c r="AR15" s="51"/>
+      <c r="AS15" s="51"/>
+      <c r="AT15" s="51"/>
+      <c r="AU15" s="51"/>
+      <c r="AV15" s="51"/>
+      <c r="AW15" s="51"/>
+      <c r="AX15" s="51"/>
+      <c r="AY15" s="51"/>
+      <c r="AZ15" s="51"/>
+      <c r="BA15" s="51"/>
+      <c r="BB15" s="51"/>
+      <c r="BC15" s="51"/>
+      <c r="BD15" s="51"/>
+      <c r="BE15" s="51"/>
       <c r="BF15" s="21"/>
     </row>
     <row r="16" spans="3:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5328,56 +5328,56 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="37"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="64"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="35"/>
-      <c r="AJ16" s="35"/>
-      <c r="AK16" s="35"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="35"/>
-      <c r="AO16" s="35"/>
-      <c r="AP16" s="35"/>
-      <c r="AQ16" s="35"/>
-      <c r="AR16" s="35"/>
-      <c r="AS16" s="35"/>
-      <c r="AT16" s="35"/>
-      <c r="AU16" s="35"/>
-      <c r="AV16" s="35"/>
-      <c r="AW16" s="35"/>
-      <c r="AX16" s="35"/>
-      <c r="AY16" s="35"/>
-      <c r="AZ16" s="35"/>
-      <c r="BA16" s="35"/>
-      <c r="BB16" s="35"/>
-      <c r="BC16" s="35"/>
-      <c r="BD16" s="35"/>
-      <c r="BE16" s="35"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="51"/>
+      <c r="AO16" s="51"/>
+      <c r="AP16" s="51"/>
+      <c r="AQ16" s="51"/>
+      <c r="AR16" s="51"/>
+      <c r="AS16" s="51"/>
+      <c r="AT16" s="51"/>
+      <c r="AU16" s="51"/>
+      <c r="AV16" s="51"/>
+      <c r="AW16" s="51"/>
+      <c r="AX16" s="51"/>
+      <c r="AY16" s="51"/>
+      <c r="AZ16" s="51"/>
+      <c r="BA16" s="51"/>
+      <c r="BB16" s="51"/>
+      <c r="BC16" s="51"/>
+      <c r="BD16" s="51"/>
+      <c r="BE16" s="51"/>
       <c r="BF16" s="21"/>
     </row>
     <row r="17" spans="3:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5386,27 +5386,27 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="37"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="64"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
@@ -5636,34 +5636,34 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="39" t="s">
+      <c r="K25" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="41"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="68"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="33"/>
-      <c r="Q25" s="39" t="s">
+      <c r="Q25" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="41"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="68"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
-      <c r="AC25" s="39" t="s">
+      <c r="AC25" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="41"/>
+      <c r="AD25" s="67"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="68"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="21"/>
     </row>
@@ -5675,13 +5675,13 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="L26" s="49">
+      <c r="L26" s="39">
         <v>1</v>
       </c>
-      <c r="U26" s="49">
+      <c r="U26" s="39">
         <v>2</v>
       </c>
-      <c r="AD26" s="49">
+      <c r="AD26" s="39">
         <v>3</v>
       </c>
       <c r="AF26" s="3"/>
@@ -5772,19 +5772,19 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="42" t="s">
+      <c r="P29" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="43"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="62"/>
       <c r="S29" s="2"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
-      <c r="V29" s="42" t="s">
+      <c r="V29" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
       <c r="Y29" s="2" t="s">
         <v>38</v>
       </c>
@@ -5841,37 +5841,37 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="31"/>
-      <c r="K31" s="50" t="s">
+      <c r="K31" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50" t="s">
+      <c r="L31" s="53"/>
+      <c r="M31" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50" t="s">
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50" t="s">
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50" t="s">
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
       <c r="AF31" s="4"/>
       <c r="AG31" s="3"/>
       <c r="AH31" s="21"/>
@@ -5885,27 +5885,27 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="31"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="35"/>
-      <c r="AD32" s="35"/>
-      <c r="AE32" s="35"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="51"/>
       <c r="AF32" s="4"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="21"/>
@@ -5919,27 +5919,27 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="31"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="35"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="51"/>
       <c r="AF33" s="4"/>
       <c r="AG33" s="3"/>
       <c r="AH33" s="21"/>
@@ -6065,11 +6065,11 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
-      <c r="S37" s="42" t="s">
+      <c r="S37" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="T37" s="42"/>
-      <c r="U37" s="43"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="62"/>
       <c r="V37" s="2"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
@@ -6127,41 +6127,41 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="51" t="s">
+      <c r="K39" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="L39" s="52"/>
-      <c r="M39" s="51" t="s">
+      <c r="L39" s="59"/>
+      <c r="M39" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="N39" s="53"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="51" t="s">
+      <c r="N39" s="58"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="51" t="s">
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="U39" s="52"/>
-      <c r="V39" s="50" t="s">
+      <c r="U39" s="59"/>
+      <c r="V39" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="51" t="s">
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="51" t="s">
+      <c r="AA39" s="58"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AD39" s="53"/>
-      <c r="AE39" s="52"/>
+      <c r="AD39" s="58"/>
+      <c r="AE39" s="59"/>
       <c r="AF39" s="4"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="21"/>
@@ -6184,25 +6184,25 @@
       <c r="J40" s="5"/>
       <c r="K40" s="29"/>
       <c r="L40" s="30"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
-      <c r="Z40" s="36"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="37"/>
-      <c r="AC40" s="36"/>
-      <c r="AD40" s="38"/>
-      <c r="AE40" s="37"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="65"/>
+      <c r="S40" s="64"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="64"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="65"/>
+      <c r="AB40" s="64"/>
+      <c r="AC40" s="52"/>
+      <c r="AD40" s="65"/>
+      <c r="AE40" s="64"/>
       <c r="AF40" s="4"/>
       <c r="AG40" s="3"/>
       <c r="AH40" s="21"/>
@@ -6218,25 +6218,25 @@
       <c r="J41" s="5"/>
       <c r="K41" s="29"/>
       <c r="L41" s="30"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="38"/>
-      <c r="AB41" s="37"/>
-      <c r="AC41" s="36"/>
-      <c r="AD41" s="38"/>
-      <c r="AE41" s="37"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="65"/>
+      <c r="S41" s="64"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="64"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="65"/>
+      <c r="AB41" s="64"/>
+      <c r="AC41" s="52"/>
+      <c r="AD41" s="65"/>
+      <c r="AE41" s="64"/>
       <c r="AF41" s="4"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="21"/>
@@ -6362,11 +6362,11 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
-      <c r="S45" s="42" t="s">
+      <c r="S45" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="T45" s="42"/>
-      <c r="U45" s="43"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="62"/>
       <c r="V45" s="2"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
@@ -6424,39 +6424,39 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="51" t="s">
+      <c r="K47" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="L47" s="52"/>
-      <c r="M47" s="51" t="s">
+      <c r="L47" s="59"/>
+      <c r="M47" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="N47" s="53"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="51" t="s">
+      <c r="N47" s="58"/>
+      <c r="O47" s="59"/>
+      <c r="P47" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="51" t="s">
+      <c r="Q47" s="58"/>
+      <c r="R47" s="58"/>
+      <c r="S47" s="58"/>
+      <c r="T47" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="U47" s="53"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="45"/>
-      <c r="Y47" s="53" t="s">
+      <c r="U47" s="58"/>
+      <c r="V47" s="58"/>
+      <c r="W47" s="58"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="Z47" s="53"/>
-      <c r="AA47" s="52"/>
-      <c r="AB47" s="51" t="s">
+      <c r="Z47" s="58"/>
+      <c r="AA47" s="59"/>
+      <c r="AB47" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="AC47" s="53"/>
-      <c r="AD47" s="53"/>
-      <c r="AE47" s="52"/>
+      <c r="AC47" s="58"/>
+      <c r="AD47" s="58"/>
+      <c r="AE47" s="59"/>
       <c r="AF47" s="4"/>
       <c r="AG47" s="3"/>
       <c r="AH47" s="21"/>
@@ -6470,27 +6470,27 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="65"/>
+      <c r="R48" s="65"/>
+      <c r="S48" s="65"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="65"/>
+      <c r="V48" s="65"/>
+      <c r="W48" s="65"/>
       <c r="X48" s="30"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
-      <c r="AA48" s="37"/>
-      <c r="AB48" s="36"/>
-      <c r="AC48" s="38"/>
-      <c r="AD48" s="38"/>
-      <c r="AE48" s="37"/>
+      <c r="Y48" s="65"/>
+      <c r="Z48" s="65"/>
+      <c r="AA48" s="64"/>
+      <c r="AB48" s="52"/>
+      <c r="AC48" s="65"/>
+      <c r="AD48" s="65"/>
+      <c r="AE48" s="64"/>
       <c r="AF48" s="4"/>
       <c r="AG48" s="3"/>
       <c r="AH48" s="21"/>
@@ -6504,27 +6504,27 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="65"/>
+      <c r="V49" s="65"/>
+      <c r="W49" s="65"/>
       <c r="X49" s="30"/>
-      <c r="Y49" s="38"/>
-      <c r="Z49" s="38"/>
-      <c r="AA49" s="37"/>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="38"/>
-      <c r="AD49" s="38"/>
-      <c r="AE49" s="37"/>
+      <c r="Y49" s="65"/>
+      <c r="Z49" s="65"/>
+      <c r="AA49" s="64"/>
+      <c r="AB49" s="52"/>
+      <c r="AC49" s="65"/>
+      <c r="AD49" s="65"/>
+      <c r="AE49" s="64"/>
       <c r="AF49" s="4"/>
       <c r="AG49" s="3"/>
       <c r="AH49" s="21"/>
@@ -6658,14 +6658,14 @@
     </row>
     <row r="56" spans="3:58" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C56" s="20"/>
-      <c r="D56" s="60" t="s">
+      <c r="D56" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="61"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="43"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="28"/>
@@ -6827,33 +6827,33 @@
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
-      <c r="U59" s="39" t="s">
+      <c r="U59" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="V59" s="40"/>
-      <c r="W59" s="41"/>
+      <c r="V59" s="67"/>
+      <c r="W59" s="68"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
-      <c r="Z59" s="39" t="s">
+      <c r="Z59" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="AA59" s="40"/>
-      <c r="AB59" s="40"/>
-      <c r="AC59" s="40"/>
-      <c r="AD59" s="40"/>
-      <c r="AE59" s="40"/>
-      <c r="AF59" s="40"/>
-      <c r="AG59" s="40"/>
-      <c r="AH59" s="40"/>
-      <c r="AI59" s="41"/>
+      <c r="AA59" s="67"/>
+      <c r="AB59" s="67"/>
+      <c r="AC59" s="67"/>
+      <c r="AD59" s="67"/>
+      <c r="AE59" s="67"/>
+      <c r="AF59" s="67"/>
+      <c r="AG59" s="67"/>
+      <c r="AH59" s="67"/>
+      <c r="AI59" s="68"/>
       <c r="AJ59" s="3"/>
       <c r="AK59" s="3"/>
-      <c r="AL59" s="39" t="s">
+      <c r="AL59" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="AM59" s="40"/>
-      <c r="AN59" s="40"/>
-      <c r="AO59" s="41"/>
+      <c r="AM59" s="67"/>
+      <c r="AN59" s="67"/>
+      <c r="AO59" s="68"/>
       <c r="AP59" s="3"/>
       <c r="AQ59" s="3"/>
       <c r="AR59" s="3"/>
@@ -6926,37 +6926,37 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="Q61" s="3"/>
-      <c r="R61" s="46" t="s">
+      <c r="R61" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="S61" s="47"/>
-      <c r="T61" s="47"/>
-      <c r="U61" s="47"/>
-      <c r="V61" s="47"/>
-      <c r="W61" s="46"/>
-      <c r="X61" s="48"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="38"/>
       <c r="Y61" s="3"/>
-      <c r="Z61" s="39" t="s">
+      <c r="Z61" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="AA61" s="40"/>
-      <c r="AB61" s="40"/>
-      <c r="AC61" s="40"/>
-      <c r="AD61" s="40"/>
-      <c r="AE61" s="40"/>
-      <c r="AF61" s="40"/>
-      <c r="AG61" s="40"/>
-      <c r="AH61" s="40"/>
-      <c r="AI61" s="41"/>
+      <c r="AA61" s="67"/>
+      <c r="AB61" s="67"/>
+      <c r="AC61" s="67"/>
+      <c r="AD61" s="67"/>
+      <c r="AE61" s="67"/>
+      <c r="AF61" s="67"/>
+      <c r="AG61" s="67"/>
+      <c r="AH61" s="67"/>
+      <c r="AI61" s="68"/>
       <c r="AJ61" s="3"/>
-      <c r="AK61" s="46" t="s">
+      <c r="AK61" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="AL61" s="47"/>
-      <c r="AM61" s="47"/>
-      <c r="AN61" s="47"/>
-      <c r="AO61" s="47"/>
-      <c r="AP61" s="48"/>
+      <c r="AL61" s="37"/>
+      <c r="AM61" s="37"/>
+      <c r="AN61" s="37"/>
+      <c r="AO61" s="37"/>
+      <c r="AP61" s="38"/>
       <c r="AQ61" s="3"/>
       <c r="AR61" s="3"/>
       <c r="AS61" s="3"/>
@@ -7155,19 +7155,19 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="42" t="s">
+      <c r="K65" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="L65" s="42"/>
-      <c r="M65" s="43"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="62"/>
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
-      <c r="Q65" s="62" t="s">
+      <c r="Q65" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="R65" s="62"/>
-      <c r="S65" s="62"/>
+      <c r="R65" s="44"/>
+      <c r="S65" s="44"/>
       <c r="T65" s="2"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
@@ -7189,11 +7189,11 @@
       <c r="AJ65" s="3"/>
       <c r="AK65" s="3"/>
       <c r="AL65" s="3"/>
-      <c r="AM65" s="42" t="s">
+      <c r="AM65" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="AN65" s="42"/>
-      <c r="AO65" s="43"/>
+      <c r="AN65" s="61"/>
+      <c r="AO65" s="62"/>
       <c r="AP65" s="2"/>
       <c r="AQ65" s="3"/>
       <c r="AR65" s="3"/>
@@ -7274,77 +7274,77 @@
       <c r="C67" s="20"/>
       <c r="D67" s="3"/>
       <c r="E67" s="31"/>
-      <c r="F67" s="50" t="s">
+      <c r="F67" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50" t="s">
+      <c r="G67" s="53"/>
+      <c r="H67" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="50" t="s">
+      <c r="I67" s="53"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="53"/>
+      <c r="M67" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="N67" s="50"/>
-      <c r="O67" s="50"/>
-      <c r="P67" s="50"/>
-      <c r="Q67" s="50"/>
-      <c r="R67" s="50"/>
-      <c r="S67" s="50" t="s">
+      <c r="N67" s="53"/>
+      <c r="O67" s="53"/>
+      <c r="P67" s="53"/>
+      <c r="Q67" s="53"/>
+      <c r="R67" s="53"/>
+      <c r="S67" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="T67" s="50"/>
-      <c r="U67" s="50"/>
-      <c r="V67" s="50"/>
-      <c r="W67" s="50" t="s">
+      <c r="T67" s="53"/>
+      <c r="U67" s="53"/>
+      <c r="V67" s="53"/>
+      <c r="W67" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="X67" s="50"/>
-      <c r="Y67" s="50"/>
-      <c r="Z67" s="50"/>
+      <c r="X67" s="53"/>
+      <c r="Y67" s="53"/>
+      <c r="Z67" s="53"/>
       <c r="AA67" s="4"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="5"/>
-      <c r="AF67" s="51" t="s">
+      <c r="AF67" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AG67" s="52"/>
-      <c r="AH67" s="51" t="s">
+      <c r="AG67" s="59"/>
+      <c r="AH67" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="AI67" s="53"/>
-      <c r="AJ67" s="52"/>
-      <c r="AK67" s="51" t="s">
+      <c r="AI67" s="58"/>
+      <c r="AJ67" s="59"/>
+      <c r="AK67" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="AL67" s="53"/>
-      <c r="AM67" s="53"/>
-      <c r="AN67" s="52"/>
-      <c r="AO67" s="51" t="s">
+      <c r="AL67" s="58"/>
+      <c r="AM67" s="58"/>
+      <c r="AN67" s="59"/>
+      <c r="AO67" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="AP67" s="53"/>
-      <c r="AQ67" s="52"/>
-      <c r="AR67" s="51" t="s">
+      <c r="AP67" s="58"/>
+      <c r="AQ67" s="59"/>
+      <c r="AR67" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="AS67" s="53"/>
-      <c r="AT67" s="53"/>
-      <c r="AU67" s="52"/>
-      <c r="AV67" s="51" t="s">
+      <c r="AS67" s="58"/>
+      <c r="AT67" s="58"/>
+      <c r="AU67" s="59"/>
+      <c r="AV67" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="AW67" s="52"/>
-      <c r="AX67" s="51" t="s">
+      <c r="AW67" s="59"/>
+      <c r="AX67" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AY67" s="53"/>
-      <c r="AZ67" s="52"/>
+      <c r="AY67" s="58"/>
+      <c r="AZ67" s="59"/>
       <c r="BA67" s="4"/>
       <c r="BB67" s="3"/>
       <c r="BC67" s="3"/>
@@ -7356,53 +7356,53 @@
       <c r="C68" s="20"/>
       <c r="D68" s="3"/>
       <c r="E68" s="31"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
-      <c r="S68" s="35"/>
-      <c r="T68" s="35"/>
-      <c r="U68" s="35"/>
-      <c r="V68" s="35"/>
-      <c r="W68" s="35"/>
-      <c r="X68" s="35"/>
-      <c r="Y68" s="35"/>
-      <c r="Z68" s="35"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="51"/>
+      <c r="M68" s="51"/>
+      <c r="N68" s="51"/>
+      <c r="O68" s="51"/>
+      <c r="P68" s="51"/>
+      <c r="Q68" s="51"/>
+      <c r="R68" s="51"/>
+      <c r="S68" s="51"/>
+      <c r="T68" s="51"/>
+      <c r="U68" s="51"/>
+      <c r="V68" s="51"/>
+      <c r="W68" s="51"/>
+      <c r="X68" s="51"/>
+      <c r="Y68" s="51"/>
+      <c r="Z68" s="51"/>
       <c r="AA68" s="4"/>
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
       <c r="AD68" s="3"/>
       <c r="AE68" s="5"/>
-      <c r="AF68" s="36"/>
-      <c r="AG68" s="37"/>
-      <c r="AH68" s="36"/>
-      <c r="AI68" s="38"/>
-      <c r="AJ68" s="37"/>
-      <c r="AK68" s="36"/>
-      <c r="AL68" s="38"/>
-      <c r="AM68" s="38"/>
-      <c r="AN68" s="37"/>
-      <c r="AO68" s="36"/>
-      <c r="AP68" s="38"/>
-      <c r="AQ68" s="37"/>
-      <c r="AR68" s="36"/>
-      <c r="AS68" s="38"/>
-      <c r="AT68" s="38"/>
-      <c r="AU68" s="37"/>
-      <c r="AV68" s="36"/>
-      <c r="AW68" s="37"/>
-      <c r="AX68" s="36"/>
-      <c r="AY68" s="38"/>
-      <c r="AZ68" s="37"/>
+      <c r="AF68" s="52"/>
+      <c r="AG68" s="64"/>
+      <c r="AH68" s="52"/>
+      <c r="AI68" s="65"/>
+      <c r="AJ68" s="64"/>
+      <c r="AK68" s="52"/>
+      <c r="AL68" s="65"/>
+      <c r="AM68" s="65"/>
+      <c r="AN68" s="64"/>
+      <c r="AO68" s="52"/>
+      <c r="AP68" s="65"/>
+      <c r="AQ68" s="64"/>
+      <c r="AR68" s="52"/>
+      <c r="AS68" s="65"/>
+      <c r="AT68" s="65"/>
+      <c r="AU68" s="64"/>
+      <c r="AV68" s="52"/>
+      <c r="AW68" s="64"/>
+      <c r="AX68" s="52"/>
+      <c r="AY68" s="65"/>
+      <c r="AZ68" s="64"/>
       <c r="BA68" s="4"/>
       <c r="BB68" s="3"/>
       <c r="BC68" s="3"/>
@@ -7414,53 +7414,53 @@
       <c r="C69" s="20"/>
       <c r="D69" s="3"/>
       <c r="E69" s="31"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="35"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
-      <c r="X69" s="35"/>
-      <c r="Y69" s="35"/>
-      <c r="Z69" s="35"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="51"/>
+      <c r="M69" s="51"/>
+      <c r="N69" s="51"/>
+      <c r="O69" s="51"/>
+      <c r="P69" s="51"/>
+      <c r="Q69" s="51"/>
+      <c r="R69" s="51"/>
+      <c r="S69" s="51"/>
+      <c r="T69" s="51"/>
+      <c r="U69" s="51"/>
+      <c r="V69" s="51"/>
+      <c r="W69" s="51"/>
+      <c r="X69" s="51"/>
+      <c r="Y69" s="51"/>
+      <c r="Z69" s="51"/>
       <c r="AA69" s="4"/>
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
       <c r="AD69" s="3"/>
       <c r="AE69" s="5"/>
-      <c r="AF69" s="36"/>
-      <c r="AG69" s="37"/>
-      <c r="AH69" s="36"/>
-      <c r="AI69" s="38"/>
-      <c r="AJ69" s="37"/>
-      <c r="AK69" s="36"/>
-      <c r="AL69" s="38"/>
-      <c r="AM69" s="38"/>
-      <c r="AN69" s="37"/>
-      <c r="AO69" s="36"/>
-      <c r="AP69" s="38"/>
-      <c r="AQ69" s="37"/>
-      <c r="AR69" s="36"/>
-      <c r="AS69" s="38"/>
-      <c r="AT69" s="38"/>
-      <c r="AU69" s="37"/>
-      <c r="AV69" s="36"/>
-      <c r="AW69" s="37"/>
-      <c r="AX69" s="36"/>
-      <c r="AY69" s="38"/>
-      <c r="AZ69" s="37"/>
+      <c r="AF69" s="52"/>
+      <c r="AG69" s="64"/>
+      <c r="AH69" s="52"/>
+      <c r="AI69" s="65"/>
+      <c r="AJ69" s="64"/>
+      <c r="AK69" s="52"/>
+      <c r="AL69" s="65"/>
+      <c r="AM69" s="65"/>
+      <c r="AN69" s="64"/>
+      <c r="AO69" s="52"/>
+      <c r="AP69" s="65"/>
+      <c r="AQ69" s="64"/>
+      <c r="AR69" s="52"/>
+      <c r="AS69" s="65"/>
+      <c r="AT69" s="65"/>
+      <c r="AU69" s="64"/>
+      <c r="AV69" s="52"/>
+      <c r="AW69" s="64"/>
+      <c r="AX69" s="52"/>
+      <c r="AY69" s="65"/>
+      <c r="AZ69" s="64"/>
       <c r="BA69" s="4"/>
       <c r="BB69" s="3"/>
       <c r="BC69" s="3"/>
@@ -7656,11 +7656,11 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
-      <c r="N73" s="42" t="s">
+      <c r="N73" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="O73" s="42"/>
-      <c r="P73" s="43"/>
+      <c r="O73" s="61"/>
+      <c r="P73" s="62"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
@@ -7684,19 +7684,19 @@
       <c r="AI73" s="3"/>
       <c r="AJ73" s="3"/>
       <c r="AK73" s="3"/>
-      <c r="AL73" s="42" t="s">
+      <c r="AL73" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AM73" s="42"/>
-      <c r="AN73" s="43"/>
+      <c r="AM73" s="61"/>
+      <c r="AN73" s="62"/>
       <c r="AO73" s="2"/>
       <c r="AP73" s="3"/>
       <c r="AQ73" s="3"/>
-      <c r="AR73" s="42" t="s">
+      <c r="AR73" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="AS73" s="42"/>
-      <c r="AT73" s="43"/>
+      <c r="AS73" s="61"/>
+      <c r="AT73" s="62"/>
       <c r="AU73" s="2"/>
       <c r="AV73" s="3"/>
       <c r="AW73" s="3"/>
@@ -7772,81 +7772,81 @@
       <c r="C75" s="20"/>
       <c r="D75" s="3"/>
       <c r="E75" s="5"/>
-      <c r="F75" s="51" t="s">
+      <c r="F75" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="52"/>
-      <c r="H75" s="51" t="s">
+      <c r="G75" s="59"/>
+      <c r="H75" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="I75" s="53"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="51" t="s">
+      <c r="I75" s="58"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="L75" s="53"/>
-      <c r="M75" s="53"/>
-      <c r="N75" s="52"/>
-      <c r="O75" s="51" t="s">
+      <c r="L75" s="58"/>
+      <c r="M75" s="58"/>
+      <c r="N75" s="59"/>
+      <c r="O75" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="50" t="s">
+      <c r="P75" s="59"/>
+      <c r="Q75" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="R75" s="50"/>
-      <c r="S75" s="50"/>
-      <c r="T75" s="50"/>
-      <c r="U75" s="51" t="s">
+      <c r="R75" s="53"/>
+      <c r="S75" s="53"/>
+      <c r="T75" s="53"/>
+      <c r="U75" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="V75" s="53"/>
-      <c r="W75" s="52"/>
-      <c r="X75" s="51" t="s">
+      <c r="V75" s="58"/>
+      <c r="W75" s="59"/>
+      <c r="X75" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Y75" s="53"/>
-      <c r="Z75" s="52"/>
+      <c r="Y75" s="58"/>
+      <c r="Z75" s="59"/>
       <c r="AA75" s="4"/>
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
       <c r="AD75" s="3"/>
       <c r="AE75" s="5"/>
-      <c r="AF75" s="51" t="s">
+      <c r="AF75" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AG75" s="52"/>
-      <c r="AH75" s="51" t="s">
+      <c r="AG75" s="59"/>
+      <c r="AH75" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AI75" s="53"/>
-      <c r="AJ75" s="52"/>
-      <c r="AK75" s="51" t="s">
+      <c r="AI75" s="58"/>
+      <c r="AJ75" s="59"/>
+      <c r="AK75" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="AL75" s="53"/>
-      <c r="AM75" s="53"/>
-      <c r="AN75" s="52"/>
-      <c r="AO75" s="51" t="s">
+      <c r="AL75" s="58"/>
+      <c r="AM75" s="58"/>
+      <c r="AN75" s="59"/>
+      <c r="AO75" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="AP75" s="53"/>
-      <c r="AQ75" s="52"/>
-      <c r="AR75" s="51" t="s">
+      <c r="AP75" s="58"/>
+      <c r="AQ75" s="59"/>
+      <c r="AR75" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="AS75" s="53"/>
-      <c r="AT75" s="53"/>
-      <c r="AU75" s="52"/>
-      <c r="AV75" s="51" t="s">
+      <c r="AS75" s="58"/>
+      <c r="AT75" s="58"/>
+      <c r="AU75" s="59"/>
+      <c r="AV75" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="AW75" s="52"/>
-      <c r="AX75" s="51" t="s">
+      <c r="AW75" s="59"/>
+      <c r="AX75" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AY75" s="53"/>
-      <c r="AZ75" s="52"/>
+      <c r="AY75" s="58"/>
+      <c r="AZ75" s="59"/>
       <c r="BA75" s="4"/>
       <c r="BB75" s="3"/>
       <c r="BC75" s="3"/>
@@ -7860,51 +7860,51 @@
       <c r="E76" s="5"/>
       <c r="F76" s="29"/>
       <c r="G76" s="30"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="36"/>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
-      <c r="S76" s="35"/>
-      <c r="T76" s="35"/>
-      <c r="U76" s="36"/>
-      <c r="V76" s="38"/>
-      <c r="W76" s="37"/>
-      <c r="X76" s="36"/>
-      <c r="Y76" s="38"/>
-      <c r="Z76" s="37"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="64"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="65"/>
+      <c r="M76" s="65"/>
+      <c r="N76" s="64"/>
+      <c r="O76" s="52"/>
+      <c r="P76" s="64"/>
+      <c r="Q76" s="51"/>
+      <c r="R76" s="51"/>
+      <c r="S76" s="51"/>
+      <c r="T76" s="51"/>
+      <c r="U76" s="52"/>
+      <c r="V76" s="65"/>
+      <c r="W76" s="64"/>
+      <c r="X76" s="52"/>
+      <c r="Y76" s="65"/>
+      <c r="Z76" s="64"/>
       <c r="AA76" s="4"/>
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
       <c r="AD76" s="3"/>
       <c r="AE76" s="5"/>
-      <c r="AF76" s="36"/>
-      <c r="AG76" s="37"/>
-      <c r="AH76" s="36"/>
-      <c r="AI76" s="38"/>
-      <c r="AJ76" s="37"/>
-      <c r="AK76" s="36"/>
-      <c r="AL76" s="38"/>
-      <c r="AM76" s="38"/>
-      <c r="AN76" s="37"/>
-      <c r="AO76" s="36"/>
-      <c r="AP76" s="38"/>
-      <c r="AQ76" s="37"/>
-      <c r="AR76" s="36"/>
-      <c r="AS76" s="38"/>
-      <c r="AT76" s="38"/>
-      <c r="AU76" s="37"/>
-      <c r="AV76" s="36"/>
-      <c r="AW76" s="37"/>
-      <c r="AX76" s="36"/>
-      <c r="AY76" s="38"/>
-      <c r="AZ76" s="37"/>
+      <c r="AF76" s="52"/>
+      <c r="AG76" s="64"/>
+      <c r="AH76" s="52"/>
+      <c r="AI76" s="65"/>
+      <c r="AJ76" s="64"/>
+      <c r="AK76" s="52"/>
+      <c r="AL76" s="65"/>
+      <c r="AM76" s="65"/>
+      <c r="AN76" s="64"/>
+      <c r="AO76" s="52"/>
+      <c r="AP76" s="65"/>
+      <c r="AQ76" s="64"/>
+      <c r="AR76" s="52"/>
+      <c r="AS76" s="65"/>
+      <c r="AT76" s="65"/>
+      <c r="AU76" s="64"/>
+      <c r="AV76" s="52"/>
+      <c r="AW76" s="64"/>
+      <c r="AX76" s="52"/>
+      <c r="AY76" s="65"/>
+      <c r="AZ76" s="64"/>
       <c r="BA76" s="4"/>
       <c r="BB76" s="3"/>
       <c r="BC76" s="3"/>
@@ -7918,51 +7918,51 @@
       <c r="E77" s="5"/>
       <c r="F77" s="29"/>
       <c r="G77" s="30"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="36"/>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
-      <c r="S77" s="35"/>
-      <c r="T77" s="35"/>
-      <c r="U77" s="36"/>
-      <c r="V77" s="38"/>
-      <c r="W77" s="37"/>
-      <c r="X77" s="36"/>
-      <c r="Y77" s="38"/>
-      <c r="Z77" s="37"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="64"/>
+      <c r="K77" s="52"/>
+      <c r="L77" s="65"/>
+      <c r="M77" s="65"/>
+      <c r="N77" s="64"/>
+      <c r="O77" s="52"/>
+      <c r="P77" s="64"/>
+      <c r="Q77" s="51"/>
+      <c r="R77" s="51"/>
+      <c r="S77" s="51"/>
+      <c r="T77" s="51"/>
+      <c r="U77" s="52"/>
+      <c r="V77" s="65"/>
+      <c r="W77" s="64"/>
+      <c r="X77" s="52"/>
+      <c r="Y77" s="65"/>
+      <c r="Z77" s="64"/>
       <c r="AA77" s="4"/>
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
       <c r="AD77" s="3"/>
       <c r="AE77" s="5"/>
-      <c r="AF77" s="36"/>
-      <c r="AG77" s="37"/>
-      <c r="AH77" s="36"/>
-      <c r="AI77" s="38"/>
-      <c r="AJ77" s="37"/>
-      <c r="AK77" s="36"/>
-      <c r="AL77" s="38"/>
-      <c r="AM77" s="38"/>
-      <c r="AN77" s="37"/>
-      <c r="AO77" s="36"/>
-      <c r="AP77" s="38"/>
-      <c r="AQ77" s="37"/>
-      <c r="AR77" s="36"/>
-      <c r="AS77" s="38"/>
-      <c r="AT77" s="38"/>
-      <c r="AU77" s="37"/>
-      <c r="AV77" s="36"/>
-      <c r="AW77" s="37"/>
-      <c r="AX77" s="36"/>
-      <c r="AY77" s="38"/>
-      <c r="AZ77" s="37"/>
+      <c r="AF77" s="52"/>
+      <c r="AG77" s="64"/>
+      <c r="AH77" s="52"/>
+      <c r="AI77" s="65"/>
+      <c r="AJ77" s="64"/>
+      <c r="AK77" s="52"/>
+      <c r="AL77" s="65"/>
+      <c r="AM77" s="65"/>
+      <c r="AN77" s="64"/>
+      <c r="AO77" s="52"/>
+      <c r="AP77" s="65"/>
+      <c r="AQ77" s="64"/>
+      <c r="AR77" s="52"/>
+      <c r="AS77" s="65"/>
+      <c r="AT77" s="65"/>
+      <c r="AU77" s="64"/>
+      <c r="AV77" s="52"/>
+      <c r="AW77" s="64"/>
+      <c r="AX77" s="52"/>
+      <c r="AY77" s="65"/>
+      <c r="AZ77" s="64"/>
       <c r="BA77" s="4"/>
       <c r="BB77" s="3"/>
       <c r="BC77" s="3"/>
@@ -8158,11 +8158,11 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
-      <c r="N81" s="42" t="s">
+      <c r="N81" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="O81" s="42"/>
-      <c r="P81" s="43"/>
+      <c r="O81" s="61"/>
+      <c r="P81" s="62"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
@@ -8190,11 +8190,11 @@
       <c r="AM81" s="3"/>
       <c r="AN81" s="3"/>
       <c r="AO81" s="3"/>
-      <c r="AP81" s="42" t="s">
+      <c r="AP81" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="AQ81" s="42"/>
-      <c r="AR81" s="43"/>
+      <c r="AQ81" s="61"/>
+      <c r="AR81" s="62"/>
       <c r="AS81" s="2"/>
       <c r="AT81" s="3"/>
       <c r="AU81" s="3"/>
@@ -8272,39 +8272,39 @@
       <c r="C83" s="20"/>
       <c r="D83" s="3"/>
       <c r="E83" s="5"/>
-      <c r="F83" s="51" t="s">
+      <c r="F83" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G83" s="52"/>
-      <c r="H83" s="51" t="s">
+      <c r="G83" s="59"/>
+      <c r="H83" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="I83" s="53"/>
-      <c r="J83" s="52"/>
-      <c r="K83" s="51" t="s">
+      <c r="I83" s="58"/>
+      <c r="J83" s="59"/>
+      <c r="K83" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="L83" s="53"/>
-      <c r="M83" s="53"/>
-      <c r="N83" s="53"/>
-      <c r="O83" s="51" t="s">
+      <c r="L83" s="58"/>
+      <c r="M83" s="58"/>
+      <c r="N83" s="58"/>
+      <c r="O83" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="P83" s="53"/>
-      <c r="Q83" s="53"/>
-      <c r="R83" s="53"/>
-      <c r="S83" s="45"/>
-      <c r="T83" s="53" t="s">
+      <c r="P83" s="58"/>
+      <c r="Q83" s="58"/>
+      <c r="R83" s="58"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="U83" s="53"/>
-      <c r="V83" s="52"/>
-      <c r="W83" s="51" t="s">
+      <c r="U83" s="58"/>
+      <c r="V83" s="59"/>
+      <c r="W83" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="X83" s="53"/>
-      <c r="Y83" s="53"/>
-      <c r="Z83" s="52"/>
+      <c r="X83" s="58"/>
+      <c r="Y83" s="58"/>
+      <c r="Z83" s="59"/>
       <c r="AA83" s="4"/>
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
@@ -8312,14 +8312,14 @@
       <c r="AE83" s="5"/>
       <c r="AF83" s="3"/>
       <c r="AG83" s="3"/>
-      <c r="AH83" s="58" t="s">
+      <c r="AH83" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AI83" s="58"/>
-      <c r="AJ83" s="58"/>
-      <c r="AK83" s="58"/>
-      <c r="AL83" s="58"/>
-      <c r="AM83" s="58"/>
+      <c r="AI83" s="41"/>
+      <c r="AJ83" s="41"/>
+      <c r="AK83" s="41"/>
+      <c r="AL83" s="41"/>
+      <c r="AM83" s="41"/>
       <c r="AN83" s="3"/>
       <c r="AO83" s="3"/>
       <c r="AP83" s="3"/>
@@ -8328,14 +8328,14 @@
       <c r="AS83" s="3"/>
       <c r="AT83" s="3"/>
       <c r="AU83" s="3"/>
-      <c r="AV83" s="58" t="s">
+      <c r="AV83" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="AW83" s="58"/>
-      <c r="AX83" s="58"/>
-      <c r="AY83" s="58"/>
-      <c r="AZ83" s="58"/>
-      <c r="BA83" s="58"/>
+      <c r="AW83" s="41"/>
+      <c r="AX83" s="41"/>
+      <c r="AY83" s="41"/>
+      <c r="AZ83" s="41"/>
+      <c r="BA83" s="41"/>
       <c r="BB83" s="2"/>
       <c r="BC83" s="3"/>
       <c r="BD83" s="3"/>
@@ -8346,27 +8346,27 @@
       <c r="C84" s="20"/>
       <c r="D84" s="3"/>
       <c r="E84" s="5"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="38"/>
-      <c r="O84" s="36"/>
-      <c r="P84" s="38"/>
-      <c r="Q84" s="38"/>
-      <c r="R84" s="38"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="65"/>
+      <c r="J84" s="64"/>
+      <c r="K84" s="52"/>
+      <c r="L84" s="65"/>
+      <c r="M84" s="65"/>
+      <c r="N84" s="65"/>
+      <c r="O84" s="52"/>
+      <c r="P84" s="65"/>
+      <c r="Q84" s="65"/>
+      <c r="R84" s="65"/>
       <c r="S84" s="30"/>
-      <c r="T84" s="38"/>
-      <c r="U84" s="38"/>
-      <c r="V84" s="37"/>
-      <c r="W84" s="36"/>
-      <c r="X84" s="38"/>
-      <c r="Y84" s="38"/>
-      <c r="Z84" s="37"/>
+      <c r="T84" s="65"/>
+      <c r="U84" s="65"/>
+      <c r="V84" s="64"/>
+      <c r="W84" s="52"/>
+      <c r="X84" s="65"/>
+      <c r="Y84" s="65"/>
+      <c r="Z84" s="64"/>
       <c r="AA84" s="4"/>
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
@@ -8404,72 +8404,72 @@
       <c r="C85" s="20"/>
       <c r="D85" s="3"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="38"/>
-      <c r="O85" s="36"/>
-      <c r="P85" s="38"/>
-      <c r="Q85" s="38"/>
-      <c r="R85" s="38"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="64"/>
+      <c r="H85" s="52"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="64"/>
+      <c r="K85" s="52"/>
+      <c r="L85" s="65"/>
+      <c r="M85" s="65"/>
+      <c r="N85" s="65"/>
+      <c r="O85" s="52"/>
+      <c r="P85" s="65"/>
+      <c r="Q85" s="65"/>
+      <c r="R85" s="65"/>
       <c r="S85" s="30"/>
-      <c r="T85" s="38"/>
-      <c r="U85" s="38"/>
-      <c r="V85" s="37"/>
-      <c r="W85" s="36"/>
-      <c r="X85" s="38"/>
-      <c r="Y85" s="38"/>
-      <c r="Z85" s="37"/>
+      <c r="T85" s="65"/>
+      <c r="U85" s="65"/>
+      <c r="V85" s="64"/>
+      <c r="W85" s="52"/>
+      <c r="X85" s="65"/>
+      <c r="Y85" s="65"/>
+      <c r="Z85" s="64"/>
       <c r="AA85" s="4"/>
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
       <c r="AD85" s="3"/>
       <c r="AE85" s="5"/>
-      <c r="AF85" s="51" t="s">
+      <c r="AF85" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AG85" s="52"/>
-      <c r="AH85" s="51" t="s">
+      <c r="AG85" s="59"/>
+      <c r="AH85" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AI85" s="52"/>
-      <c r="AJ85" s="51" t="s">
+      <c r="AI85" s="59"/>
+      <c r="AJ85" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="AK85" s="53"/>
-      <c r="AL85" s="52"/>
-      <c r="AM85" s="51" t="s">
+      <c r="AK85" s="58"/>
+      <c r="AL85" s="59"/>
+      <c r="AM85" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AN85" s="53"/>
-      <c r="AO85" s="52"/>
+      <c r="AN85" s="58"/>
+      <c r="AO85" s="59"/>
       <c r="AP85" s="3"/>
       <c r="AQ85" s="3"/>
       <c r="AR85" s="3"/>
       <c r="AS85" s="3"/>
-      <c r="AT85" s="51" t="s">
+      <c r="AT85" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AU85" s="52"/>
-      <c r="AV85" s="51" t="s">
+      <c r="AU85" s="59"/>
+      <c r="AV85" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AW85" s="52"/>
-      <c r="AX85" s="51" t="s">
+      <c r="AW85" s="59"/>
+      <c r="AX85" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="AY85" s="53"/>
-      <c r="AZ85" s="52"/>
-      <c r="BA85" s="51" t="s">
+      <c r="AY85" s="58"/>
+      <c r="AZ85" s="59"/>
+      <c r="BA85" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="BB85" s="53"/>
-      <c r="BC85" s="52"/>
+      <c r="BB85" s="58"/>
+      <c r="BC85" s="59"/>
       <c r="BD85" s="3"/>
       <c r="BE85" s="4"/>
       <c r="BF85" s="21"/>
@@ -8504,30 +8504,30 @@
       <c r="AC86" s="3"/>
       <c r="AD86" s="3"/>
       <c r="AE86" s="5"/>
-      <c r="AF86" s="65"/>
-      <c r="AG86" s="66"/>
-      <c r="AH86" s="65"/>
-      <c r="AI86" s="66"/>
-      <c r="AJ86" s="65"/>
-      <c r="AK86" s="67"/>
-      <c r="AL86" s="66"/>
-      <c r="AM86" s="65"/>
-      <c r="AN86" s="67"/>
-      <c r="AO86" s="66"/>
+      <c r="AF86" s="54"/>
+      <c r="AG86" s="55"/>
+      <c r="AH86" s="54"/>
+      <c r="AI86" s="55"/>
+      <c r="AJ86" s="54"/>
+      <c r="AK86" s="56"/>
+      <c r="AL86" s="55"/>
+      <c r="AM86" s="54"/>
+      <c r="AN86" s="56"/>
+      <c r="AO86" s="55"/>
       <c r="AP86" s="3"/>
-      <c r="AQ86" s="59"/>
-      <c r="AR86" s="59"/>
+      <c r="AQ86" s="60"/>
+      <c r="AR86" s="60"/>
       <c r="AS86" s="3"/>
-      <c r="AT86" s="65"/>
-      <c r="AU86" s="66"/>
-      <c r="AV86" s="65"/>
-      <c r="AW86" s="66"/>
-      <c r="AX86" s="65"/>
-      <c r="AY86" s="67"/>
-      <c r="AZ86" s="66"/>
-      <c r="BA86" s="65"/>
-      <c r="BB86" s="67"/>
-      <c r="BC86" s="66"/>
+      <c r="AT86" s="54"/>
+      <c r="AU86" s="55"/>
+      <c r="AV86" s="54"/>
+      <c r="AW86" s="55"/>
+      <c r="AX86" s="54"/>
+      <c r="AY86" s="56"/>
+      <c r="AZ86" s="55"/>
+      <c r="BA86" s="54"/>
+      <c r="BB86" s="56"/>
+      <c r="BC86" s="55"/>
       <c r="BD86" s="3"/>
       <c r="BE86" s="4"/>
       <c r="BF86" s="21"/>
@@ -8562,30 +8562,30 @@
       <c r="AC87" s="3"/>
       <c r="AD87" s="3"/>
       <c r="AE87" s="5"/>
-      <c r="AF87" s="65"/>
-      <c r="AG87" s="66"/>
-      <c r="AH87" s="65"/>
-      <c r="AI87" s="66"/>
-      <c r="AJ87" s="65"/>
-      <c r="AK87" s="67"/>
-      <c r="AL87" s="66"/>
-      <c r="AM87" s="65"/>
-      <c r="AN87" s="67"/>
-      <c r="AO87" s="66"/>
+      <c r="AF87" s="54"/>
+      <c r="AG87" s="55"/>
+      <c r="AH87" s="54"/>
+      <c r="AI87" s="55"/>
+      <c r="AJ87" s="54"/>
+      <c r="AK87" s="56"/>
+      <c r="AL87" s="55"/>
+      <c r="AM87" s="54"/>
+      <c r="AN87" s="56"/>
+      <c r="AO87" s="55"/>
       <c r="AP87" s="3"/>
       <c r="AQ87" s="3"/>
       <c r="AR87" s="3"/>
       <c r="AS87" s="3"/>
-      <c r="AT87" s="65"/>
-      <c r="AU87" s="66"/>
-      <c r="AV87" s="65"/>
-      <c r="AW87" s="66"/>
-      <c r="AX87" s="65"/>
-      <c r="AY87" s="67"/>
-      <c r="AZ87" s="66"/>
-      <c r="BA87" s="65"/>
-      <c r="BB87" s="67"/>
-      <c r="BC87" s="66"/>
+      <c r="AT87" s="54"/>
+      <c r="AU87" s="55"/>
+      <c r="AV87" s="54"/>
+      <c r="AW87" s="55"/>
+      <c r="AX87" s="54"/>
+      <c r="AY87" s="56"/>
+      <c r="AZ87" s="55"/>
+      <c r="BA87" s="54"/>
+      <c r="BB87" s="56"/>
+      <c r="BC87" s="55"/>
       <c r="BD87" s="3"/>
       <c r="BE87" s="4"/>
       <c r="BF87" s="21"/>
@@ -8776,15 +8776,15 @@
     </row>
     <row r="93" spans="3:67" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C93" s="20"/>
-      <c r="D93" s="73" t="s">
+      <c r="D93" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="E93" s="73"/>
-      <c r="F93" s="73"/>
-      <c r="G93" s="73"/>
-      <c r="H93" s="73"/>
-      <c r="I93" s="73"/>
-      <c r="J93" s="73"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="69"/>
+      <c r="G93" s="69"/>
+      <c r="H93" s="69"/>
+      <c r="I93" s="69"/>
+      <c r="J93" s="69"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -9000,34 +9000,34 @@
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
-      <c r="S96" s="39" t="s">
+      <c r="S96" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="T96" s="40"/>
-      <c r="U96" s="41"/>
+      <c r="T96" s="67"/>
+      <c r="U96" s="68"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
       <c r="X96" s="33"/>
-      <c r="Y96" s="39" t="s">
+      <c r="Y96" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="Z96" s="40"/>
-      <c r="AA96" s="40"/>
-      <c r="AB96" s="40"/>
-      <c r="AC96" s="40"/>
-      <c r="AD96" s="40"/>
-      <c r="AE96" s="40"/>
-      <c r="AF96" s="40"/>
-      <c r="AG96" s="40"/>
-      <c r="AH96" s="41"/>
+      <c r="Z96" s="67"/>
+      <c r="AA96" s="67"/>
+      <c r="AB96" s="67"/>
+      <c r="AC96" s="67"/>
+      <c r="AD96" s="67"/>
+      <c r="AE96" s="67"/>
+      <c r="AF96" s="67"/>
+      <c r="AG96" s="67"/>
+      <c r="AH96" s="68"/>
       <c r="AI96" s="3"/>
       <c r="AJ96" s="3"/>
-      <c r="AK96" s="39" t="s">
+      <c r="AK96" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="AL96" s="40"/>
-      <c r="AM96" s="40"/>
-      <c r="AN96" s="41"/>
+      <c r="AL96" s="67"/>
+      <c r="AM96" s="67"/>
+      <c r="AN96" s="68"/>
       <c r="AO96" s="3"/>
       <c r="AP96" s="3"/>
       <c r="AQ96" s="3"/>
@@ -9138,44 +9138,44 @@
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
-      <c r="Q98" s="39" t="s">
+      <c r="Q98" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="R98" s="40"/>
-      <c r="S98" s="40"/>
-      <c r="T98" s="40"/>
-      <c r="U98" s="40"/>
-      <c r="V98" s="41"/>
+      <c r="R98" s="67"/>
+      <c r="S98" s="67"/>
+      <c r="T98" s="67"/>
+      <c r="U98" s="67"/>
+      <c r="V98" s="68"/>
       <c r="W98" s="3"/>
-      <c r="X98" s="51" t="s">
+      <c r="X98" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="Y98" s="53"/>
-      <c r="Z98" s="53"/>
-      <c r="AA98" s="53"/>
-      <c r="AB98" s="53"/>
-      <c r="AC98" s="52"/>
+      <c r="Y98" s="58"/>
+      <c r="Z98" s="58"/>
+      <c r="AA98" s="58"/>
+      <c r="AB98" s="58"/>
+      <c r="AC98" s="59"/>
       <c r="AD98" s="3"/>
-      <c r="AE98" s="51" t="s">
+      <c r="AE98" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AF98" s="53"/>
-      <c r="AG98" s="52"/>
+      <c r="AF98" s="58"/>
+      <c r="AG98" s="59"/>
       <c r="AH98" s="3"/>
-      <c r="AI98" s="51" t="s">
+      <c r="AI98" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="AJ98" s="53"/>
-      <c r="AK98" s="53"/>
-      <c r="AL98" s="52"/>
+      <c r="AJ98" s="58"/>
+      <c r="AK98" s="58"/>
+      <c r="AL98" s="59"/>
       <c r="AM98" s="3"/>
-      <c r="AN98" s="51" t="s">
+      <c r="AN98" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="AO98" s="53"/>
-      <c r="AP98" s="53"/>
-      <c r="AQ98" s="53"/>
-      <c r="AR98" s="52"/>
+      <c r="AO98" s="58"/>
+      <c r="AP98" s="58"/>
+      <c r="AQ98" s="58"/>
+      <c r="AR98" s="59"/>
       <c r="AS98" s="3"/>
       <c r="AT98" s="3"/>
       <c r="AU98" s="3"/>
@@ -9555,19 +9555,19 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
-      <c r="J104" s="42" t="s">
+      <c r="J104" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="K104" s="42"/>
-      <c r="L104" s="43"/>
+      <c r="K104" s="61"/>
+      <c r="L104" s="62"/>
       <c r="M104" s="2"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
-      <c r="P104" s="62" t="s">
+      <c r="P104" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="Q104" s="62"/>
-      <c r="R104" s="62"/>
+      <c r="Q104" s="44"/>
+      <c r="R104" s="44"/>
       <c r="S104" s="2"/>
       <c r="T104" s="3"/>
       <c r="U104" s="3"/>
@@ -9589,21 +9589,21 @@
       <c r="AI104" s="3"/>
       <c r="AJ104" s="3"/>
       <c r="AK104" s="3"/>
-      <c r="AL104" s="42" t="s">
+      <c r="AL104" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AM104" s="42"/>
-      <c r="AN104" s="43"/>
+      <c r="AM104" s="61"/>
+      <c r="AN104" s="62"/>
       <c r="AO104" s="2"/>
       <c r="AP104" s="3"/>
       <c r="AQ104" s="3"/>
       <c r="AR104" s="3"/>
       <c r="AS104" s="3"/>
-      <c r="AT104" s="42" t="s">
+      <c r="AT104" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AU104" s="42"/>
-      <c r="AV104" s="43"/>
+      <c r="AU104" s="61"/>
+      <c r="AV104" s="62"/>
       <c r="AW104" s="2"/>
       <c r="AX104" s="3"/>
       <c r="AY104" s="3"/>
@@ -9694,37 +9694,37 @@
     <row r="106" spans="3:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="20"/>
       <c r="D106" s="31"/>
-      <c r="E106" s="50" t="s">
+      <c r="E106" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F106" s="50"/>
-      <c r="G106" s="50" t="s">
+      <c r="F106" s="53"/>
+      <c r="G106" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H106" s="50"/>
-      <c r="I106" s="50"/>
-      <c r="J106" s="50"/>
-      <c r="K106" s="50"/>
-      <c r="L106" s="50" t="s">
+      <c r="H106" s="53"/>
+      <c r="I106" s="53"/>
+      <c r="J106" s="53"/>
+      <c r="K106" s="53"/>
+      <c r="L106" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="M106" s="50"/>
-      <c r="N106" s="50"/>
-      <c r="O106" s="50"/>
-      <c r="P106" s="50"/>
-      <c r="Q106" s="50"/>
-      <c r="R106" s="50" t="s">
+      <c r="M106" s="53"/>
+      <c r="N106" s="53"/>
+      <c r="O106" s="53"/>
+      <c r="P106" s="53"/>
+      <c r="Q106" s="53"/>
+      <c r="R106" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="S106" s="50"/>
-      <c r="T106" s="50"/>
-      <c r="U106" s="50"/>
-      <c r="V106" s="50" t="s">
+      <c r="S106" s="53"/>
+      <c r="T106" s="53"/>
+      <c r="U106" s="53"/>
+      <c r="V106" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="W106" s="50"/>
-      <c r="X106" s="50"/>
-      <c r="Y106" s="50"/>
+      <c r="W106" s="53"/>
+      <c r="X106" s="53"/>
+      <c r="Y106" s="53"/>
       <c r="Z106" s="4"/>
       <c r="AA106" s="3"/>
       <c r="AB106" s="3"/>
@@ -9747,13 +9747,13 @@
       <c r="AQ106" s="26"/>
       <c r="AR106" s="26"/>
       <c r="AS106" s="3"/>
-      <c r="AT106" s="64" t="s">
+      <c r="AT106" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="AU106" s="64"/>
-      <c r="AV106" s="64"/>
-      <c r="AW106" s="64"/>
-      <c r="AX106" s="64"/>
+      <c r="AU106" s="63"/>
+      <c r="AV106" s="63"/>
+      <c r="AW106" s="63"/>
+      <c r="AX106" s="63"/>
       <c r="AY106" s="3"/>
       <c r="AZ106" s="3"/>
       <c r="BA106" s="3"/>
@@ -9775,27 +9775,27 @@
     <row r="107" spans="3:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="20"/>
       <c r="D107" s="31"/>
-      <c r="E107" s="35"/>
-      <c r="F107" s="35"/>
-      <c r="G107" s="35"/>
-      <c r="H107" s="35"/>
-      <c r="I107" s="35"/>
-      <c r="J107" s="35"/>
-      <c r="K107" s="35"/>
-      <c r="L107" s="35"/>
-      <c r="M107" s="35"/>
-      <c r="N107" s="35"/>
-      <c r="O107" s="35"/>
-      <c r="P107" s="35"/>
-      <c r="Q107" s="35"/>
-      <c r="R107" s="35"/>
-      <c r="S107" s="35"/>
-      <c r="T107" s="35"/>
-      <c r="U107" s="35"/>
-      <c r="V107" s="35"/>
-      <c r="W107" s="35"/>
-      <c r="X107" s="35"/>
-      <c r="Y107" s="35"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="51"/>
+      <c r="J107" s="51"/>
+      <c r="K107" s="51"/>
+      <c r="L107" s="51"/>
+      <c r="M107" s="51"/>
+      <c r="N107" s="51"/>
+      <c r="O107" s="51"/>
+      <c r="P107" s="51"/>
+      <c r="Q107" s="51"/>
+      <c r="R107" s="51"/>
+      <c r="S107" s="51"/>
+      <c r="T107" s="51"/>
+      <c r="U107" s="51"/>
+      <c r="V107" s="51"/>
+      <c r="W107" s="51"/>
+      <c r="X107" s="51"/>
+      <c r="Y107" s="51"/>
       <c r="Z107" s="4"/>
       <c r="AA107" s="3"/>
       <c r="AB107" s="3"/>
@@ -9842,27 +9842,27 @@
     <row r="108" spans="3:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="20"/>
       <c r="D108" s="31"/>
-      <c r="E108" s="35"/>
-      <c r="F108" s="35"/>
-      <c r="G108" s="35"/>
-      <c r="H108" s="35"/>
-      <c r="I108" s="35"/>
-      <c r="J108" s="35"/>
-      <c r="K108" s="35"/>
-      <c r="L108" s="35"/>
-      <c r="M108" s="35"/>
-      <c r="N108" s="35"/>
-      <c r="O108" s="35"/>
-      <c r="P108" s="35"/>
-      <c r="Q108" s="35"/>
-      <c r="R108" s="35"/>
-      <c r="S108" s="35"/>
-      <c r="T108" s="35"/>
-      <c r="U108" s="35"/>
-      <c r="V108" s="35"/>
-      <c r="W108" s="35"/>
-      <c r="X108" s="35"/>
-      <c r="Y108" s="35"/>
+      <c r="E108" s="51"/>
+      <c r="F108" s="51"/>
+      <c r="G108" s="51"/>
+      <c r="H108" s="51"/>
+      <c r="I108" s="51"/>
+      <c r="J108" s="51"/>
+      <c r="K108" s="51"/>
+      <c r="L108" s="51"/>
+      <c r="M108" s="51"/>
+      <c r="N108" s="51"/>
+      <c r="O108" s="51"/>
+      <c r="P108" s="51"/>
+      <c r="Q108" s="51"/>
+      <c r="R108" s="51"/>
+      <c r="S108" s="51"/>
+      <c r="T108" s="51"/>
+      <c r="U108" s="51"/>
+      <c r="V108" s="51"/>
+      <c r="W108" s="51"/>
+      <c r="X108" s="51"/>
+      <c r="Y108" s="51"/>
       <c r="Z108" s="4"/>
       <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
@@ -9871,45 +9871,45 @@
       <c r="AE108" s="3"/>
       <c r="AF108" s="5"/>
       <c r="AG108" s="3"/>
-      <c r="AH108" s="51" t="s">
+      <c r="AH108" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AI108" s="52"/>
-      <c r="AJ108" s="51" t="s">
+      <c r="AI108" s="59"/>
+      <c r="AJ108" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AK108" s="53"/>
-      <c r="AL108" s="52"/>
-      <c r="AM108" s="51" t="s">
+      <c r="AK108" s="58"/>
+      <c r="AL108" s="59"/>
+      <c r="AM108" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="AN108" s="53"/>
-      <c r="AO108" s="53"/>
-      <c r="AP108" s="52"/>
-      <c r="AQ108" s="51" t="s">
+      <c r="AN108" s="58"/>
+      <c r="AO108" s="58"/>
+      <c r="AP108" s="59"/>
+      <c r="AQ108" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="AR108" s="52"/>
-      <c r="AS108" s="51" t="s">
+      <c r="AR108" s="59"/>
+      <c r="AS108" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="AT108" s="53"/>
-      <c r="AU108" s="53"/>
-      <c r="AV108" s="52"/>
-      <c r="AW108" s="51" t="s">
+      <c r="AT108" s="58"/>
+      <c r="AU108" s="58"/>
+      <c r="AV108" s="59"/>
+      <c r="AW108" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="AX108" s="52"/>
-      <c r="AY108" s="51" t="s">
+      <c r="AX108" s="59"/>
+      <c r="AY108" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AZ108" s="53"/>
-      <c r="BA108" s="52"/>
-      <c r="BB108" s="51" t="s">
+      <c r="AZ108" s="58"/>
+      <c r="BA108" s="59"/>
+      <c r="BB108" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="BC108" s="53"/>
-      <c r="BD108" s="52"/>
+      <c r="BC108" s="58"/>
+      <c r="BD108" s="59"/>
       <c r="BE108" s="3"/>
       <c r="BF108" s="3"/>
       <c r="BG108" s="4"/>
@@ -9954,29 +9954,29 @@
       <c r="AE109" s="3"/>
       <c r="AF109" s="5"/>
       <c r="AG109" s="3"/>
-      <c r="AH109" s="65"/>
-      <c r="AI109" s="66"/>
-      <c r="AJ109" s="65"/>
-      <c r="AK109" s="67"/>
-      <c r="AL109" s="66"/>
-      <c r="AM109" s="65"/>
-      <c r="AN109" s="67"/>
-      <c r="AO109" s="67"/>
-      <c r="AP109" s="66"/>
-      <c r="AQ109" s="65"/>
-      <c r="AR109" s="66"/>
-      <c r="AS109" s="65"/>
-      <c r="AT109" s="67"/>
-      <c r="AU109" s="67"/>
-      <c r="AV109" s="66"/>
-      <c r="AW109" s="65"/>
-      <c r="AX109" s="66"/>
-      <c r="AY109" s="65"/>
-      <c r="AZ109" s="67"/>
-      <c r="BA109" s="66"/>
-      <c r="BB109" s="65"/>
-      <c r="BC109" s="67"/>
-      <c r="BD109" s="66"/>
+      <c r="AH109" s="54"/>
+      <c r="AI109" s="55"/>
+      <c r="AJ109" s="54"/>
+      <c r="AK109" s="56"/>
+      <c r="AL109" s="55"/>
+      <c r="AM109" s="54"/>
+      <c r="AN109" s="56"/>
+      <c r="AO109" s="56"/>
+      <c r="AP109" s="55"/>
+      <c r="AQ109" s="54"/>
+      <c r="AR109" s="55"/>
+      <c r="AS109" s="54"/>
+      <c r="AT109" s="56"/>
+      <c r="AU109" s="56"/>
+      <c r="AV109" s="55"/>
+      <c r="AW109" s="54"/>
+      <c r="AX109" s="55"/>
+      <c r="AY109" s="54"/>
+      <c r="AZ109" s="56"/>
+      <c r="BA109" s="55"/>
+      <c r="BB109" s="54"/>
+      <c r="BC109" s="56"/>
+      <c r="BD109" s="55"/>
       <c r="BE109" s="3"/>
       <c r="BF109" s="3"/>
       <c r="BG109" s="4"/>
@@ -10021,29 +10021,29 @@
       <c r="AE110" s="3"/>
       <c r="AF110" s="5"/>
       <c r="AG110" s="3"/>
-      <c r="AH110" s="65"/>
-      <c r="AI110" s="66"/>
-      <c r="AJ110" s="65"/>
-      <c r="AK110" s="67"/>
-      <c r="AL110" s="66"/>
-      <c r="AM110" s="65"/>
-      <c r="AN110" s="67"/>
-      <c r="AO110" s="67"/>
-      <c r="AP110" s="66"/>
-      <c r="AQ110" s="65"/>
-      <c r="AR110" s="66"/>
-      <c r="AS110" s="65"/>
-      <c r="AT110" s="67"/>
-      <c r="AU110" s="67"/>
-      <c r="AV110" s="66"/>
-      <c r="AW110" s="65"/>
-      <c r="AX110" s="66"/>
-      <c r="AY110" s="65"/>
-      <c r="AZ110" s="67"/>
-      <c r="BA110" s="66"/>
-      <c r="BB110" s="65"/>
-      <c r="BC110" s="67"/>
-      <c r="BD110" s="66"/>
+      <c r="AH110" s="54"/>
+      <c r="AI110" s="55"/>
+      <c r="AJ110" s="54"/>
+      <c r="AK110" s="56"/>
+      <c r="AL110" s="55"/>
+      <c r="AM110" s="54"/>
+      <c r="AN110" s="56"/>
+      <c r="AO110" s="56"/>
+      <c r="AP110" s="55"/>
+      <c r="AQ110" s="54"/>
+      <c r="AR110" s="55"/>
+      <c r="AS110" s="54"/>
+      <c r="AT110" s="56"/>
+      <c r="AU110" s="56"/>
+      <c r="AV110" s="55"/>
+      <c r="AW110" s="54"/>
+      <c r="AX110" s="55"/>
+      <c r="AY110" s="54"/>
+      <c r="AZ110" s="56"/>
+      <c r="BA110" s="55"/>
+      <c r="BB110" s="54"/>
+      <c r="BC110" s="56"/>
+      <c r="BD110" s="55"/>
       <c r="BE110" s="3"/>
       <c r="BF110" s="3"/>
       <c r="BG110" s="4"/>
@@ -10136,11 +10136,11 @@
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
-      <c r="M112" s="42" t="s">
+      <c r="M112" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="N112" s="42"/>
-      <c r="O112" s="43"/>
+      <c r="N112" s="61"/>
+      <c r="O112" s="62"/>
       <c r="P112" s="2"/>
       <c r="Q112" s="3"/>
       <c r="R112" s="3"/>
@@ -10226,45 +10226,45 @@
       <c r="AE113" s="3"/>
       <c r="AF113" s="5"/>
       <c r="AG113" s="3"/>
-      <c r="AH113" s="51" t="s">
+      <c r="AH113" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AI113" s="52"/>
-      <c r="AJ113" s="51" t="s">
+      <c r="AI113" s="59"/>
+      <c r="AJ113" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AK113" s="53"/>
-      <c r="AL113" s="52"/>
-      <c r="AM113" s="51" t="s">
+      <c r="AK113" s="58"/>
+      <c r="AL113" s="59"/>
+      <c r="AM113" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="AN113" s="53"/>
-      <c r="AO113" s="53"/>
-      <c r="AP113" s="52"/>
-      <c r="AQ113" s="51" t="s">
+      <c r="AN113" s="58"/>
+      <c r="AO113" s="58"/>
+      <c r="AP113" s="59"/>
+      <c r="AQ113" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="AR113" s="52"/>
-      <c r="AS113" s="51" t="s">
+      <c r="AR113" s="59"/>
+      <c r="AS113" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="AT113" s="53"/>
-      <c r="AU113" s="53"/>
-      <c r="AV113" s="52"/>
-      <c r="AW113" s="51" t="s">
+      <c r="AT113" s="58"/>
+      <c r="AU113" s="58"/>
+      <c r="AV113" s="59"/>
+      <c r="AW113" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="AX113" s="52"/>
-      <c r="AY113" s="51" t="s">
+      <c r="AX113" s="59"/>
+      <c r="AY113" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AZ113" s="53"/>
-      <c r="BA113" s="52"/>
-      <c r="BB113" s="51" t="s">
+      <c r="AZ113" s="58"/>
+      <c r="BA113" s="59"/>
+      <c r="BB113" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="BC113" s="53"/>
-      <c r="BD113" s="52"/>
+      <c r="BC113" s="58"/>
+      <c r="BD113" s="59"/>
       <c r="BE113" s="3"/>
       <c r="BF113" s="3"/>
       <c r="BG113" s="4"/>
@@ -10280,41 +10280,41 @@
     <row r="114" spans="3:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="20"/>
       <c r="D114" s="5"/>
-      <c r="E114" s="51" t="s">
+      <c r="E114" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F114" s="52"/>
-      <c r="G114" s="51" t="s">
+      <c r="F114" s="59"/>
+      <c r="G114" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H114" s="53"/>
-      <c r="I114" s="52"/>
-      <c r="J114" s="51" t="s">
+      <c r="H114" s="58"/>
+      <c r="I114" s="59"/>
+      <c r="J114" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="K114" s="53"/>
-      <c r="L114" s="53"/>
-      <c r="M114" s="52"/>
-      <c r="N114" s="51" t="s">
+      <c r="K114" s="58"/>
+      <c r="L114" s="58"/>
+      <c r="M114" s="59"/>
+      <c r="N114" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="O114" s="52"/>
-      <c r="P114" s="50" t="s">
+      <c r="O114" s="59"/>
+      <c r="P114" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="Q114" s="50"/>
-      <c r="R114" s="50"/>
-      <c r="S114" s="50"/>
-      <c r="T114" s="51" t="s">
+      <c r="Q114" s="53"/>
+      <c r="R114" s="53"/>
+      <c r="S114" s="53"/>
+      <c r="T114" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="U114" s="53"/>
-      <c r="V114" s="52"/>
-      <c r="W114" s="51" t="s">
+      <c r="U114" s="58"/>
+      <c r="V114" s="59"/>
+      <c r="W114" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="X114" s="53"/>
-      <c r="Y114" s="52"/>
+      <c r="X114" s="58"/>
+      <c r="Y114" s="59"/>
       <c r="Z114" s="4"/>
       <c r="AA114" s="3"/>
       <c r="AB114" s="3"/>
@@ -10323,29 +10323,29 @@
       <c r="AE114" s="3"/>
       <c r="AF114" s="5"/>
       <c r="AG114" s="3"/>
-      <c r="AH114" s="65"/>
-      <c r="AI114" s="66"/>
-      <c r="AJ114" s="65"/>
-      <c r="AK114" s="67"/>
-      <c r="AL114" s="66"/>
-      <c r="AM114" s="65"/>
-      <c r="AN114" s="67"/>
-      <c r="AO114" s="67"/>
-      <c r="AP114" s="66"/>
-      <c r="AQ114" s="65"/>
-      <c r="AR114" s="66"/>
-      <c r="AS114" s="65"/>
-      <c r="AT114" s="67"/>
-      <c r="AU114" s="67"/>
-      <c r="AV114" s="66"/>
-      <c r="AW114" s="65"/>
-      <c r="AX114" s="66"/>
-      <c r="AY114" s="65"/>
-      <c r="AZ114" s="67"/>
-      <c r="BA114" s="66"/>
-      <c r="BB114" s="65"/>
-      <c r="BC114" s="67"/>
-      <c r="BD114" s="66"/>
+      <c r="AH114" s="54"/>
+      <c r="AI114" s="55"/>
+      <c r="AJ114" s="54"/>
+      <c r="AK114" s="56"/>
+      <c r="AL114" s="55"/>
+      <c r="AM114" s="54"/>
+      <c r="AN114" s="56"/>
+      <c r="AO114" s="56"/>
+      <c r="AP114" s="55"/>
+      <c r="AQ114" s="54"/>
+      <c r="AR114" s="55"/>
+      <c r="AS114" s="54"/>
+      <c r="AT114" s="56"/>
+      <c r="AU114" s="56"/>
+      <c r="AV114" s="55"/>
+      <c r="AW114" s="54"/>
+      <c r="AX114" s="55"/>
+      <c r="AY114" s="54"/>
+      <c r="AZ114" s="56"/>
+      <c r="BA114" s="55"/>
+      <c r="BB114" s="54"/>
+      <c r="BC114" s="56"/>
+      <c r="BD114" s="55"/>
       <c r="BE114" s="3"/>
       <c r="BF114" s="3"/>
       <c r="BG114" s="4"/>
@@ -10363,25 +10363,25 @@
       <c r="D115" s="5"/>
       <c r="E115" s="29"/>
       <c r="F115" s="30"/>
-      <c r="G115" s="36"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="37"/>
-      <c r="J115" s="36"/>
-      <c r="K115" s="38"/>
-      <c r="L115" s="38"/>
-      <c r="M115" s="37"/>
-      <c r="N115" s="36"/>
-      <c r="O115" s="37"/>
-      <c r="P115" s="35"/>
-      <c r="Q115" s="35"/>
-      <c r="R115" s="35"/>
-      <c r="S115" s="35"/>
-      <c r="T115" s="36"/>
-      <c r="U115" s="38"/>
-      <c r="V115" s="37"/>
-      <c r="W115" s="36"/>
-      <c r="X115" s="38"/>
-      <c r="Y115" s="37"/>
+      <c r="G115" s="52"/>
+      <c r="H115" s="65"/>
+      <c r="I115" s="64"/>
+      <c r="J115" s="52"/>
+      <c r="K115" s="65"/>
+      <c r="L115" s="65"/>
+      <c r="M115" s="64"/>
+      <c r="N115" s="52"/>
+      <c r="O115" s="64"/>
+      <c r="P115" s="51"/>
+      <c r="Q115" s="51"/>
+      <c r="R115" s="51"/>
+      <c r="S115" s="51"/>
+      <c r="T115" s="52"/>
+      <c r="U115" s="65"/>
+      <c r="V115" s="64"/>
+      <c r="W115" s="52"/>
+      <c r="X115" s="65"/>
+      <c r="Y115" s="64"/>
       <c r="Z115" s="4"/>
       <c r="AA115" s="3"/>
       <c r="AB115" s="3"/>
@@ -10390,11 +10390,11 @@
       <c r="AE115" s="3"/>
       <c r="AF115" s="5"/>
       <c r="AG115" s="3"/>
-      <c r="AH115" s="62" t="s">
+      <c r="AH115" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="AI115" s="62"/>
-      <c r="AJ115" s="62"/>
+      <c r="AI115" s="44"/>
+      <c r="AJ115" s="44"/>
       <c r="AK115" s="2"/>
       <c r="AL115" s="3"/>
       <c r="AM115" s="3"/>
@@ -10432,25 +10432,25 @@
       <c r="D116" s="5"/>
       <c r="E116" s="29"/>
       <c r="F116" s="30"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="38"/>
-      <c r="I116" s="37"/>
-      <c r="J116" s="36"/>
-      <c r="K116" s="38"/>
-      <c r="L116" s="38"/>
-      <c r="M116" s="37"/>
-      <c r="N116" s="36"/>
-      <c r="O116" s="37"/>
-      <c r="P116" s="35"/>
-      <c r="Q116" s="35"/>
-      <c r="R116" s="35"/>
-      <c r="S116" s="35"/>
-      <c r="T116" s="36"/>
-      <c r="U116" s="38"/>
-      <c r="V116" s="37"/>
-      <c r="W116" s="36"/>
-      <c r="X116" s="38"/>
-      <c r="Y116" s="37"/>
+      <c r="G116" s="52"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="64"/>
+      <c r="J116" s="52"/>
+      <c r="K116" s="65"/>
+      <c r="L116" s="65"/>
+      <c r="M116" s="64"/>
+      <c r="N116" s="52"/>
+      <c r="O116" s="64"/>
+      <c r="P116" s="51"/>
+      <c r="Q116" s="51"/>
+      <c r="R116" s="51"/>
+      <c r="S116" s="51"/>
+      <c r="T116" s="52"/>
+      <c r="U116" s="65"/>
+      <c r="V116" s="64"/>
+      <c r="W116" s="52"/>
+      <c r="X116" s="65"/>
+      <c r="Y116" s="64"/>
       <c r="Z116" s="4"/>
       <c r="AA116" s="3"/>
       <c r="AB116" s="3"/>
@@ -10708,11 +10708,11 @@
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
-      <c r="M120" s="42" t="s">
+      <c r="M120" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="N120" s="42"/>
-      <c r="O120" s="43"/>
+      <c r="N120" s="61"/>
+      <c r="O120" s="62"/>
       <c r="P120" s="2"/>
       <c r="Q120" s="3"/>
       <c r="R120" s="3"/>
@@ -10742,11 +10742,11 @@
       <c r="AN120" s="3"/>
       <c r="AO120" s="3"/>
       <c r="AP120" s="3"/>
-      <c r="AQ120" s="42" t="s">
+      <c r="AQ120" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="AR120" s="42"/>
-      <c r="AS120" s="43"/>
+      <c r="AR120" s="61"/>
+      <c r="AS120" s="62"/>
       <c r="AT120" s="2"/>
       <c r="AU120" s="3"/>
       <c r="AV120" s="3"/>
@@ -10840,39 +10840,39 @@
     <row r="122" spans="3:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="20"/>
       <c r="D122" s="5"/>
-      <c r="E122" s="51" t="s">
+      <c r="E122" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F122" s="52"/>
-      <c r="G122" s="51" t="s">
+      <c r="F122" s="59"/>
+      <c r="G122" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H122" s="53"/>
-      <c r="I122" s="52"/>
-      <c r="J122" s="51" t="s">
+      <c r="H122" s="58"/>
+      <c r="I122" s="59"/>
+      <c r="J122" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="K122" s="53"/>
-      <c r="L122" s="53"/>
-      <c r="M122" s="53"/>
-      <c r="N122" s="51" t="s">
+      <c r="K122" s="58"/>
+      <c r="L122" s="58"/>
+      <c r="M122" s="58"/>
+      <c r="N122" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="O122" s="53"/>
-      <c r="P122" s="53"/>
-      <c r="Q122" s="53"/>
-      <c r="R122" s="45"/>
-      <c r="S122" s="53" t="s">
+      <c r="O122" s="58"/>
+      <c r="P122" s="58"/>
+      <c r="Q122" s="58"/>
+      <c r="R122" s="35"/>
+      <c r="S122" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="T122" s="53"/>
-      <c r="U122" s="52"/>
-      <c r="V122" s="51" t="s">
+      <c r="T122" s="58"/>
+      <c r="U122" s="59"/>
+      <c r="V122" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="W122" s="53"/>
-      <c r="X122" s="53"/>
-      <c r="Y122" s="52"/>
+      <c r="W122" s="58"/>
+      <c r="X122" s="58"/>
+      <c r="Y122" s="59"/>
       <c r="Z122" s="4"/>
       <c r="AA122" s="3"/>
       <c r="AB122" s="3"/>
@@ -10882,14 +10882,14 @@
       <c r="AF122" s="5"/>
       <c r="AG122" s="3"/>
       <c r="AH122" s="3"/>
-      <c r="AI122" s="58" t="s">
+      <c r="AI122" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AJ122" s="58"/>
-      <c r="AK122" s="58"/>
-      <c r="AL122" s="58"/>
-      <c r="AM122" s="58"/>
-      <c r="AN122" s="58"/>
+      <c r="AJ122" s="41"/>
+      <c r="AK122" s="41"/>
+      <c r="AL122" s="41"/>
+      <c r="AM122" s="41"/>
+      <c r="AN122" s="41"/>
       <c r="AO122" s="3"/>
       <c r="AP122" s="3"/>
       <c r="AQ122" s="3"/>
@@ -10898,14 +10898,14 @@
       <c r="AT122" s="3"/>
       <c r="AU122" s="3"/>
       <c r="AV122" s="3"/>
-      <c r="AW122" s="58" t="s">
+      <c r="AW122" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="AX122" s="58"/>
-      <c r="AY122" s="58"/>
-      <c r="AZ122" s="58"/>
-      <c r="BA122" s="58"/>
-      <c r="BB122" s="58"/>
+      <c r="AX122" s="41"/>
+      <c r="AY122" s="41"/>
+      <c r="AZ122" s="41"/>
+      <c r="BA122" s="41"/>
+      <c r="BB122" s="41"/>
       <c r="BC122" s="2"/>
       <c r="BD122" s="3"/>
       <c r="BE122" s="3"/>
@@ -10923,27 +10923,27 @@
     <row r="123" spans="3:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="20"/>
       <c r="D123" s="5"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="36"/>
-      <c r="H123" s="38"/>
-      <c r="I123" s="37"/>
-      <c r="J123" s="36"/>
-      <c r="K123" s="38"/>
-      <c r="L123" s="38"/>
-      <c r="M123" s="38"/>
-      <c r="N123" s="36"/>
-      <c r="O123" s="38"/>
-      <c r="P123" s="38"/>
-      <c r="Q123" s="38"/>
+      <c r="E123" s="52"/>
+      <c r="F123" s="64"/>
+      <c r="G123" s="52"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="64"/>
+      <c r="J123" s="52"/>
+      <c r="K123" s="65"/>
+      <c r="L123" s="65"/>
+      <c r="M123" s="65"/>
+      <c r="N123" s="52"/>
+      <c r="O123" s="65"/>
+      <c r="P123" s="65"/>
+      <c r="Q123" s="65"/>
       <c r="R123" s="30"/>
-      <c r="S123" s="38"/>
-      <c r="T123" s="38"/>
-      <c r="U123" s="37"/>
-      <c r="V123" s="36"/>
-      <c r="W123" s="38"/>
-      <c r="X123" s="38"/>
-      <c r="Y123" s="37"/>
+      <c r="S123" s="65"/>
+      <c r="T123" s="65"/>
+      <c r="U123" s="64"/>
+      <c r="V123" s="52"/>
+      <c r="W123" s="65"/>
+      <c r="X123" s="65"/>
+      <c r="Y123" s="64"/>
       <c r="Z123" s="4"/>
       <c r="AA123" s="3"/>
       <c r="AB123" s="3"/>
@@ -10990,27 +10990,27 @@
     <row r="124" spans="3:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="20"/>
       <c r="D124" s="5"/>
-      <c r="E124" s="36"/>
-      <c r="F124" s="37"/>
-      <c r="G124" s="36"/>
-      <c r="H124" s="38"/>
-      <c r="I124" s="37"/>
-      <c r="J124" s="36"/>
-      <c r="K124" s="38"/>
-      <c r="L124" s="38"/>
-      <c r="M124" s="38"/>
-      <c r="N124" s="36"/>
-      <c r="O124" s="38"/>
-      <c r="P124" s="38"/>
-      <c r="Q124" s="38"/>
+      <c r="E124" s="52"/>
+      <c r="F124" s="64"/>
+      <c r="G124" s="52"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="64"/>
+      <c r="J124" s="52"/>
+      <c r="K124" s="65"/>
+      <c r="L124" s="65"/>
+      <c r="M124" s="65"/>
+      <c r="N124" s="52"/>
+      <c r="O124" s="65"/>
+      <c r="P124" s="65"/>
+      <c r="Q124" s="65"/>
       <c r="R124" s="30"/>
-      <c r="S124" s="38"/>
-      <c r="T124" s="38"/>
-      <c r="U124" s="37"/>
-      <c r="V124" s="36"/>
-      <c r="W124" s="38"/>
-      <c r="X124" s="38"/>
-      <c r="Y124" s="37"/>
+      <c r="S124" s="65"/>
+      <c r="T124" s="65"/>
+      <c r="U124" s="64"/>
+      <c r="V124" s="52"/>
+      <c r="W124" s="65"/>
+      <c r="X124" s="65"/>
+      <c r="Y124" s="64"/>
       <c r="Z124" s="4"/>
       <c r="AA124" s="3"/>
       <c r="AB124" s="3"/>
@@ -11018,44 +11018,44 @@
       <c r="AD124" s="3"/>
       <c r="AE124" s="3"/>
       <c r="AF124" s="5"/>
-      <c r="AG124" s="51" t="s">
+      <c r="AG124" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AH124" s="52"/>
-      <c r="AI124" s="51" t="s">
+      <c r="AH124" s="59"/>
+      <c r="AI124" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AJ124" s="52"/>
-      <c r="AK124" s="51" t="s">
+      <c r="AJ124" s="59"/>
+      <c r="AK124" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="AL124" s="53"/>
-      <c r="AM124" s="52"/>
-      <c r="AN124" s="51" t="s">
+      <c r="AL124" s="58"/>
+      <c r="AM124" s="59"/>
+      <c r="AN124" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AO124" s="53"/>
-      <c r="AP124" s="52"/>
+      <c r="AO124" s="58"/>
+      <c r="AP124" s="59"/>
       <c r="AQ124" s="3"/>
       <c r="AR124" s="3"/>
       <c r="AS124" s="3"/>
       <c r="AT124" s="3"/>
       <c r="AU124" s="3"/>
       <c r="AV124" s="3"/>
-      <c r="AW124" s="51" t="s">
+      <c r="AW124" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AX124" s="53"/>
-      <c r="AY124" s="51" t="s">
+      <c r="AX124" s="58"/>
+      <c r="AY124" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="AZ124" s="53"/>
-      <c r="BA124" s="52"/>
-      <c r="BB124" s="51" t="s">
+      <c r="AZ124" s="58"/>
+      <c r="BA124" s="59"/>
+      <c r="BB124" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="BC124" s="53"/>
-      <c r="BD124" s="52"/>
+      <c r="BC124" s="58"/>
+      <c r="BD124" s="59"/>
       <c r="BE124" s="3"/>
       <c r="BF124" s="4"/>
       <c r="BG124" s="3"/>
@@ -11099,30 +11099,30 @@
       <c r="AD125" s="3"/>
       <c r="AE125" s="3"/>
       <c r="AF125" s="5"/>
-      <c r="AG125" s="65"/>
-      <c r="AH125" s="66"/>
-      <c r="AI125" s="65"/>
-      <c r="AJ125" s="66"/>
-      <c r="AK125" s="65"/>
-      <c r="AL125" s="67"/>
-      <c r="AM125" s="66"/>
-      <c r="AN125" s="65"/>
-      <c r="AO125" s="67"/>
-      <c r="AP125" s="66"/>
+      <c r="AG125" s="54"/>
+      <c r="AH125" s="55"/>
+      <c r="AI125" s="54"/>
+      <c r="AJ125" s="55"/>
+      <c r="AK125" s="54"/>
+      <c r="AL125" s="56"/>
+      <c r="AM125" s="55"/>
+      <c r="AN125" s="54"/>
+      <c r="AO125" s="56"/>
+      <c r="AP125" s="55"/>
       <c r="AQ125" s="3"/>
-      <c r="AR125" s="59"/>
-      <c r="AS125" s="59"/>
+      <c r="AR125" s="60"/>
+      <c r="AS125" s="60"/>
       <c r="AT125" s="3"/>
       <c r="AU125" s="3"/>
       <c r="AV125" s="3"/>
-      <c r="AW125" s="65"/>
-      <c r="AX125" s="67"/>
-      <c r="AY125" s="65"/>
-      <c r="AZ125" s="67"/>
-      <c r="BA125" s="66"/>
-      <c r="BB125" s="65"/>
-      <c r="BC125" s="67"/>
-      <c r="BD125" s="66"/>
+      <c r="AW125" s="54"/>
+      <c r="AX125" s="56"/>
+      <c r="AY125" s="54"/>
+      <c r="AZ125" s="56"/>
+      <c r="BA125" s="55"/>
+      <c r="BB125" s="54"/>
+      <c r="BC125" s="56"/>
+      <c r="BD125" s="55"/>
       <c r="BE125" s="3"/>
       <c r="BF125" s="4"/>
       <c r="BG125" s="3"/>
@@ -11166,30 +11166,30 @@
       <c r="AD126" s="3"/>
       <c r="AE126" s="3"/>
       <c r="AF126" s="5"/>
-      <c r="AG126" s="65"/>
-      <c r="AH126" s="66"/>
-      <c r="AI126" s="65"/>
-      <c r="AJ126" s="66"/>
-      <c r="AK126" s="65"/>
-      <c r="AL126" s="67"/>
-      <c r="AM126" s="66"/>
-      <c r="AN126" s="65"/>
-      <c r="AO126" s="67"/>
-      <c r="AP126" s="66"/>
+      <c r="AG126" s="54"/>
+      <c r="AH126" s="55"/>
+      <c r="AI126" s="54"/>
+      <c r="AJ126" s="55"/>
+      <c r="AK126" s="54"/>
+      <c r="AL126" s="56"/>
+      <c r="AM126" s="55"/>
+      <c r="AN126" s="54"/>
+      <c r="AO126" s="56"/>
+      <c r="AP126" s="55"/>
       <c r="AQ126" s="3"/>
       <c r="AR126" s="3"/>
       <c r="AS126" s="3"/>
       <c r="AT126" s="3"/>
       <c r="AU126" s="3"/>
       <c r="AV126" s="3"/>
-      <c r="AW126" s="65"/>
-      <c r="AX126" s="67"/>
-      <c r="AY126" s="65"/>
-      <c r="AZ126" s="67"/>
-      <c r="BA126" s="66"/>
-      <c r="BB126" s="65"/>
-      <c r="BC126" s="67"/>
-      <c r="BD126" s="66"/>
+      <c r="AW126" s="54"/>
+      <c r="AX126" s="56"/>
+      <c r="AY126" s="54"/>
+      <c r="AZ126" s="56"/>
+      <c r="BA126" s="55"/>
+      <c r="BB126" s="54"/>
+      <c r="BC126" s="56"/>
+      <c r="BD126" s="55"/>
       <c r="BE126" s="3"/>
       <c r="BF126" s="4"/>
       <c r="BG126" s="3"/>
@@ -11346,21 +11346,21 @@
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
-      <c r="J129" s="42" t="s">
+      <c r="J129" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="K129" s="42"/>
-      <c r="L129" s="43"/>
+      <c r="K129" s="61"/>
+      <c r="L129" s="62"/>
       <c r="M129" s="2"/>
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
-      <c r="R129" s="62" t="s">
+      <c r="R129" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="S129" s="62"/>
-      <c r="T129" s="62"/>
+      <c r="S129" s="44"/>
+      <c r="T129" s="44"/>
       <c r="U129" s="2"/>
       <c r="V129" s="3"/>
       <c r="W129" s="3"/>
@@ -11479,49 +11479,49 @@
     <row r="131" spans="3:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="20"/>
       <c r="D131" s="5"/>
-      <c r="E131" s="51" t="s">
+      <c r="E131" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F131" s="52"/>
-      <c r="G131" s="51" t="s">
+      <c r="F131" s="59"/>
+      <c r="G131" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H131" s="53"/>
-      <c r="I131" s="52"/>
-      <c r="J131" s="51" t="s">
+      <c r="H131" s="58"/>
+      <c r="I131" s="59"/>
+      <c r="J131" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="K131" s="53"/>
-      <c r="L131" s="52"/>
-      <c r="M131" s="51" t="s">
+      <c r="K131" s="58"/>
+      <c r="L131" s="59"/>
+      <c r="M131" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="N131" s="52"/>
-      <c r="O131" s="51" t="s">
+      <c r="N131" s="59"/>
+      <c r="O131" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="P131" s="53"/>
-      <c r="Q131" s="53"/>
-      <c r="R131" s="52"/>
-      <c r="S131" s="51" t="s">
+      <c r="P131" s="58"/>
+      <c r="Q131" s="58"/>
+      <c r="R131" s="59"/>
+      <c r="S131" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="T131" s="53"/>
-      <c r="U131" s="53"/>
-      <c r="V131" s="52"/>
-      <c r="W131" s="51" t="s">
+      <c r="T131" s="58"/>
+      <c r="U131" s="58"/>
+      <c r="V131" s="59"/>
+      <c r="W131" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="X131" s="53"/>
-      <c r="Y131" s="52"/>
-      <c r="Z131" s="51" t="s">
+      <c r="X131" s="58"/>
+      <c r="Y131" s="59"/>
+      <c r="Z131" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="AA131" s="52"/>
-      <c r="AB131" s="44" t="s">
+      <c r="AA131" s="59"/>
+      <c r="AB131" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AC131" s="45"/>
+      <c r="AC131" s="35"/>
       <c r="AD131" s="4"/>
       <c r="AE131" s="3"/>
       <c r="AF131" s="3"/>
@@ -11537,30 +11537,30 @@
       <c r="AN131" s="3"/>
       <c r="AO131" s="3"/>
       <c r="AP131" s="3"/>
-      <c r="AQ131" s="42" t="s">
+      <c r="AQ131" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AR131" s="42"/>
-      <c r="AS131" s="43"/>
+      <c r="AR131" s="61"/>
+      <c r="AS131" s="62"/>
       <c r="AT131" s="2"/>
       <c r="AU131" s="3"/>
       <c r="AV131" s="3"/>
       <c r="AW131" s="3"/>
       <c r="AX131" s="3"/>
-      <c r="AY131" s="42" t="s">
+      <c r="AY131" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AZ131" s="42"/>
-      <c r="BA131" s="43"/>
+      <c r="AZ131" s="61"/>
+      <c r="BA131" s="62"/>
       <c r="BB131" s="2"/>
       <c r="BC131" s="3"/>
       <c r="BD131" s="3"/>
       <c r="BE131" s="3"/>
-      <c r="BF131" s="62" t="s">
+      <c r="BF131" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="BG131" s="62"/>
-      <c r="BH131" s="62"/>
+      <c r="BG131" s="44"/>
+      <c r="BH131" s="44"/>
       <c r="BI131" s="2"/>
       <c r="BJ131" s="3"/>
       <c r="BK131" s="3"/>
@@ -11572,31 +11572,31 @@
     <row r="132" spans="3:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C132" s="20"/>
       <c r="D132" s="5"/>
-      <c r="E132" s="65"/>
-      <c r="F132" s="66"/>
-      <c r="G132" s="65"/>
-      <c r="H132" s="67"/>
-      <c r="I132" s="66"/>
-      <c r="J132" s="65"/>
-      <c r="K132" s="67"/>
-      <c r="L132" s="66"/>
-      <c r="M132" s="65"/>
-      <c r="N132" s="66"/>
-      <c r="O132" s="65"/>
-      <c r="P132" s="67"/>
-      <c r="Q132" s="67"/>
-      <c r="R132" s="66"/>
-      <c r="S132" s="65"/>
-      <c r="T132" s="67"/>
-      <c r="U132" s="67"/>
-      <c r="V132" s="66"/>
-      <c r="W132" s="65"/>
-      <c r="X132" s="67"/>
-      <c r="Y132" s="66"/>
-      <c r="Z132" s="65"/>
-      <c r="AA132" s="66"/>
-      <c r="AB132" s="68"/>
-      <c r="AC132" s="69"/>
+      <c r="E132" s="54"/>
+      <c r="F132" s="55"/>
+      <c r="G132" s="54"/>
+      <c r="H132" s="56"/>
+      <c r="I132" s="55"/>
+      <c r="J132" s="54"/>
+      <c r="K132" s="56"/>
+      <c r="L132" s="55"/>
+      <c r="M132" s="54"/>
+      <c r="N132" s="55"/>
+      <c r="O132" s="54"/>
+      <c r="P132" s="56"/>
+      <c r="Q132" s="56"/>
+      <c r="R132" s="55"/>
+      <c r="S132" s="54"/>
+      <c r="T132" s="56"/>
+      <c r="U132" s="56"/>
+      <c r="V132" s="55"/>
+      <c r="W132" s="54"/>
+      <c r="X132" s="56"/>
+      <c r="Y132" s="55"/>
+      <c r="Z132" s="54"/>
+      <c r="AA132" s="55"/>
+      <c r="AB132" s="46"/>
+      <c r="AC132" s="47"/>
       <c r="AD132" s="4"/>
       <c r="AE132" s="3"/>
       <c r="AF132" s="3"/>
@@ -11639,84 +11639,84 @@
     <row r="133" spans="3:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133" s="20"/>
       <c r="D133" s="5"/>
-      <c r="E133" s="65"/>
-      <c r="F133" s="66"/>
-      <c r="G133" s="65"/>
-      <c r="H133" s="67"/>
-      <c r="I133" s="66"/>
-      <c r="J133" s="65"/>
-      <c r="K133" s="67"/>
-      <c r="L133" s="66"/>
-      <c r="M133" s="65"/>
-      <c r="N133" s="66"/>
-      <c r="O133" s="65"/>
-      <c r="P133" s="67"/>
-      <c r="Q133" s="67"/>
-      <c r="R133" s="66"/>
-      <c r="S133" s="65"/>
-      <c r="T133" s="67"/>
-      <c r="U133" s="67"/>
-      <c r="V133" s="66"/>
-      <c r="W133" s="65"/>
-      <c r="X133" s="67"/>
-      <c r="Y133" s="66"/>
-      <c r="Z133" s="65"/>
-      <c r="AA133" s="66"/>
-      <c r="AB133" s="68"/>
-      <c r="AC133" s="69"/>
+      <c r="E133" s="54"/>
+      <c r="F133" s="55"/>
+      <c r="G133" s="54"/>
+      <c r="H133" s="56"/>
+      <c r="I133" s="55"/>
+      <c r="J133" s="54"/>
+      <c r="K133" s="56"/>
+      <c r="L133" s="55"/>
+      <c r="M133" s="54"/>
+      <c r="N133" s="55"/>
+      <c r="O133" s="54"/>
+      <c r="P133" s="56"/>
+      <c r="Q133" s="56"/>
+      <c r="R133" s="55"/>
+      <c r="S133" s="54"/>
+      <c r="T133" s="56"/>
+      <c r="U133" s="56"/>
+      <c r="V133" s="55"/>
+      <c r="W133" s="54"/>
+      <c r="X133" s="56"/>
+      <c r="Y133" s="55"/>
+      <c r="Z133" s="54"/>
+      <c r="AA133" s="55"/>
+      <c r="AB133" s="46"/>
+      <c r="AC133" s="47"/>
       <c r="AD133" s="4"/>
       <c r="AE133" s="3"/>
       <c r="AF133" s="3"/>
       <c r="AG133" s="5"/>
       <c r="AH133" s="3"/>
-      <c r="AI133" s="50" t="s">
+      <c r="AI133" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AJ133" s="50"/>
-      <c r="AK133" s="50" t="s">
+      <c r="AJ133" s="53"/>
+      <c r="AK133" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AL133" s="50"/>
-      <c r="AM133" s="50" t="s">
+      <c r="AL133" s="53"/>
+      <c r="AM133" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="AN133" s="50"/>
-      <c r="AO133" s="50"/>
-      <c r="AP133" s="50"/>
-      <c r="AQ133" s="50" t="s">
+      <c r="AN133" s="53"/>
+      <c r="AO133" s="53"/>
+      <c r="AP133" s="53"/>
+      <c r="AQ133" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AR133" s="50"/>
-      <c r="AS133" s="50"/>
-      <c r="AT133" s="50"/>
-      <c r="AU133" s="50" t="s">
+      <c r="AR133" s="53"/>
+      <c r="AS133" s="53"/>
+      <c r="AT133" s="53"/>
+      <c r="AU133" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="AV133" s="50"/>
-      <c r="AW133" s="50"/>
-      <c r="AX133" s="50"/>
-      <c r="AY133" s="50" t="s">
+      <c r="AV133" s="53"/>
+      <c r="AW133" s="53"/>
+      <c r="AX133" s="53"/>
+      <c r="AY133" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AZ133" s="50"/>
-      <c r="BA133" s="50"/>
-      <c r="BB133" s="50"/>
-      <c r="BC133" s="50" t="s">
+      <c r="AZ133" s="53"/>
+      <c r="BA133" s="53"/>
+      <c r="BB133" s="53"/>
+      <c r="BC133" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="BD133" s="50"/>
-      <c r="BE133" s="50"/>
-      <c r="BF133" s="50" t="s">
+      <c r="BD133" s="53"/>
+      <c r="BE133" s="53"/>
+      <c r="BF133" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="BG133" s="50"/>
-      <c r="BH133" s="50"/>
-      <c r="BI133" s="72" t="s">
+      <c r="BG133" s="53"/>
+      <c r="BH133" s="53"/>
+      <c r="BI133" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="BJ133" s="72"/>
-      <c r="BK133" s="63"/>
-      <c r="BL133" s="71"/>
+      <c r="BJ133" s="50"/>
+      <c r="BK133" s="45"/>
+      <c r="BL133" s="49"/>
       <c r="BM133" s="4"/>
       <c r="BN133" s="3"/>
       <c r="BO133" s="21"/>
@@ -11754,35 +11754,35 @@
       <c r="AF134" s="3"/>
       <c r="AG134" s="5"/>
       <c r="AH134" s="3"/>
-      <c r="AI134" s="35"/>
-      <c r="AJ134" s="35"/>
-      <c r="AK134" s="35"/>
-      <c r="AL134" s="35"/>
-      <c r="AM134" s="35"/>
-      <c r="AN134" s="35"/>
-      <c r="AO134" s="35"/>
-      <c r="AP134" s="35"/>
-      <c r="AQ134" s="35"/>
-      <c r="AR134" s="35"/>
-      <c r="AS134" s="35"/>
-      <c r="AT134" s="35"/>
-      <c r="AU134" s="35"/>
-      <c r="AV134" s="35"/>
-      <c r="AW134" s="35"/>
-      <c r="AX134" s="35"/>
-      <c r="AY134" s="35"/>
-      <c r="AZ134" s="35"/>
-      <c r="BA134" s="35"/>
-      <c r="BB134" s="35"/>
-      <c r="BC134" s="35"/>
-      <c r="BD134" s="35"/>
-      <c r="BE134" s="35"/>
-      <c r="BF134" s="35"/>
-      <c r="BG134" s="35"/>
-      <c r="BH134" s="35"/>
-      <c r="BI134" s="35"/>
-      <c r="BJ134" s="35"/>
-      <c r="BK134" s="36"/>
+      <c r="AI134" s="51"/>
+      <c r="AJ134" s="51"/>
+      <c r="AK134" s="51"/>
+      <c r="AL134" s="51"/>
+      <c r="AM134" s="51"/>
+      <c r="AN134" s="51"/>
+      <c r="AO134" s="51"/>
+      <c r="AP134" s="51"/>
+      <c r="AQ134" s="51"/>
+      <c r="AR134" s="51"/>
+      <c r="AS134" s="51"/>
+      <c r="AT134" s="51"/>
+      <c r="AU134" s="51"/>
+      <c r="AV134" s="51"/>
+      <c r="AW134" s="51"/>
+      <c r="AX134" s="51"/>
+      <c r="AY134" s="51"/>
+      <c r="AZ134" s="51"/>
+      <c r="BA134" s="51"/>
+      <c r="BB134" s="51"/>
+      <c r="BC134" s="51"/>
+      <c r="BD134" s="51"/>
+      <c r="BE134" s="51"/>
+      <c r="BF134" s="51"/>
+      <c r="BG134" s="51"/>
+      <c r="BH134" s="51"/>
+      <c r="BI134" s="51"/>
+      <c r="BJ134" s="51"/>
+      <c r="BK134" s="52"/>
       <c r="BL134" s="30"/>
       <c r="BM134" s="4"/>
       <c r="BN134" s="3"/>
@@ -11821,35 +11821,35 @@
       <c r="AF135" s="3"/>
       <c r="AG135" s="5"/>
       <c r="AH135" s="3"/>
-      <c r="AI135" s="35"/>
-      <c r="AJ135" s="35"/>
-      <c r="AK135" s="35"/>
-      <c r="AL135" s="35"/>
-      <c r="AM135" s="35"/>
-      <c r="AN135" s="35"/>
-      <c r="AO135" s="35"/>
-      <c r="AP135" s="35"/>
-      <c r="AQ135" s="35"/>
-      <c r="AR135" s="35"/>
-      <c r="AS135" s="35"/>
-      <c r="AT135" s="35"/>
-      <c r="AU135" s="35"/>
-      <c r="AV135" s="35"/>
-      <c r="AW135" s="35"/>
-      <c r="AX135" s="35"/>
-      <c r="AY135" s="35"/>
-      <c r="AZ135" s="35"/>
-      <c r="BA135" s="35"/>
-      <c r="BB135" s="35"/>
-      <c r="BC135" s="35"/>
-      <c r="BD135" s="35"/>
-      <c r="BE135" s="35"/>
-      <c r="BF135" s="35"/>
-      <c r="BG135" s="35"/>
-      <c r="BH135" s="35"/>
-      <c r="BI135" s="35"/>
-      <c r="BJ135" s="35"/>
-      <c r="BK135" s="36"/>
+      <c r="AI135" s="51"/>
+      <c r="AJ135" s="51"/>
+      <c r="AK135" s="51"/>
+      <c r="AL135" s="51"/>
+      <c r="AM135" s="51"/>
+      <c r="AN135" s="51"/>
+      <c r="AO135" s="51"/>
+      <c r="AP135" s="51"/>
+      <c r="AQ135" s="51"/>
+      <c r="AR135" s="51"/>
+      <c r="AS135" s="51"/>
+      <c r="AT135" s="51"/>
+      <c r="AU135" s="51"/>
+      <c r="AV135" s="51"/>
+      <c r="AW135" s="51"/>
+      <c r="AX135" s="51"/>
+      <c r="AY135" s="51"/>
+      <c r="AZ135" s="51"/>
+      <c r="BA135" s="51"/>
+      <c r="BB135" s="51"/>
+      <c r="BC135" s="51"/>
+      <c r="BD135" s="51"/>
+      <c r="BE135" s="51"/>
+      <c r="BF135" s="51"/>
+      <c r="BG135" s="51"/>
+      <c r="BH135" s="51"/>
+      <c r="BI135" s="51"/>
+      <c r="BJ135" s="51"/>
+      <c r="BK135" s="52"/>
       <c r="BL135" s="30"/>
       <c r="BM135" s="4"/>
       <c r="BN135" s="3"/>
@@ -12066,21 +12066,21 @@
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
-      <c r="J139" s="42" t="s">
+      <c r="J139" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="K139" s="42"/>
-      <c r="L139" s="43"/>
+      <c r="K139" s="61"/>
+      <c r="L139" s="62"/>
       <c r="M139" s="2"/>
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
-      <c r="R139" s="62" t="s">
+      <c r="R139" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="S139" s="62"/>
-      <c r="T139" s="62"/>
+      <c r="S139" s="44"/>
+      <c r="T139" s="44"/>
       <c r="U139" s="2"/>
       <c r="V139" s="3"/>
       <c r="W139" s="3"/>
@@ -12199,50 +12199,50 @@
     <row r="141" spans="3:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C141" s="20"/>
       <c r="D141" s="5"/>
-      <c r="E141" s="51" t="s">
+      <c r="E141" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F141" s="52"/>
-      <c r="G141" s="51" t="s">
+      <c r="F141" s="59"/>
+      <c r="G141" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="H141" s="53"/>
-      <c r="I141" s="52"/>
-      <c r="J141" s="51" t="s">
+      <c r="H141" s="58"/>
+      <c r="I141" s="59"/>
+      <c r="J141" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="K141" s="53"/>
-      <c r="L141" s="52"/>
-      <c r="M141" s="51" t="s">
+      <c r="K141" s="58"/>
+      <c r="L141" s="59"/>
+      <c r="M141" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="N141" s="53"/>
-      <c r="O141" s="52"/>
-      <c r="P141" s="51" t="s">
+      <c r="N141" s="58"/>
+      <c r="O141" s="59"/>
+      <c r="P141" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="Q141" s="53"/>
-      <c r="R141" s="53"/>
-      <c r="S141" s="52"/>
-      <c r="T141" s="51" t="s">
+      <c r="Q141" s="58"/>
+      <c r="R141" s="58"/>
+      <c r="S141" s="59"/>
+      <c r="T141" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="U141" s="53"/>
-      <c r="V141" s="53"/>
-      <c r="W141" s="52"/>
-      <c r="X141" s="51" t="s">
+      <c r="U141" s="58"/>
+      <c r="V141" s="58"/>
+      <c r="W141" s="59"/>
+      <c r="X141" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="Y141" s="53"/>
-      <c r="Z141" s="52"/>
-      <c r="AA141" s="51" t="s">
+      <c r="Y141" s="58"/>
+      <c r="Z141" s="59"/>
+      <c r="AA141" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="AB141" s="52"/>
-      <c r="AC141" s="44" t="s">
+      <c r="AB141" s="59"/>
+      <c r="AC141" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AD141" s="45"/>
+      <c r="AD141" s="35"/>
       <c r="AE141" s="4"/>
       <c r="AF141" s="3"/>
       <c r="AG141" s="3"/>
@@ -12284,32 +12284,32 @@
     <row r="142" spans="3:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="20"/>
       <c r="D142" s="5"/>
-      <c r="E142" s="65"/>
-      <c r="F142" s="66"/>
-      <c r="G142" s="65"/>
-      <c r="H142" s="67"/>
-      <c r="I142" s="66"/>
-      <c r="J142" s="65"/>
-      <c r="K142" s="67"/>
-      <c r="L142" s="66"/>
-      <c r="M142" s="65"/>
-      <c r="N142" s="67"/>
-      <c r="O142" s="66"/>
-      <c r="P142" s="65"/>
-      <c r="Q142" s="67"/>
-      <c r="R142" s="67"/>
-      <c r="S142" s="66"/>
-      <c r="T142" s="65"/>
-      <c r="U142" s="67"/>
-      <c r="V142" s="67"/>
-      <c r="W142" s="66"/>
-      <c r="X142" s="65"/>
-      <c r="Y142" s="67"/>
-      <c r="Z142" s="66"/>
-      <c r="AA142" s="65"/>
-      <c r="AB142" s="66"/>
-      <c r="AC142" s="68"/>
-      <c r="AD142" s="69"/>
+      <c r="E142" s="54"/>
+      <c r="F142" s="55"/>
+      <c r="G142" s="54"/>
+      <c r="H142" s="56"/>
+      <c r="I142" s="55"/>
+      <c r="J142" s="54"/>
+      <c r="K142" s="56"/>
+      <c r="L142" s="55"/>
+      <c r="M142" s="54"/>
+      <c r="N142" s="56"/>
+      <c r="O142" s="55"/>
+      <c r="P142" s="54"/>
+      <c r="Q142" s="56"/>
+      <c r="R142" s="56"/>
+      <c r="S142" s="55"/>
+      <c r="T142" s="54"/>
+      <c r="U142" s="56"/>
+      <c r="V142" s="56"/>
+      <c r="W142" s="55"/>
+      <c r="X142" s="54"/>
+      <c r="Y142" s="56"/>
+      <c r="Z142" s="55"/>
+      <c r="AA142" s="54"/>
+      <c r="AB142" s="55"/>
+      <c r="AC142" s="46"/>
+      <c r="AD142" s="47"/>
       <c r="AE142" s="4"/>
       <c r="AF142" s="3"/>
       <c r="AG142" s="3"/>
@@ -12351,32 +12351,32 @@
     <row r="143" spans="3:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="20"/>
       <c r="D143" s="5"/>
-      <c r="E143" s="65"/>
-      <c r="F143" s="66"/>
-      <c r="G143" s="65"/>
-      <c r="H143" s="67"/>
-      <c r="I143" s="66"/>
-      <c r="J143" s="65"/>
-      <c r="K143" s="67"/>
-      <c r="L143" s="66"/>
-      <c r="M143" s="70"/>
-      <c r="N143" s="67"/>
-      <c r="O143" s="66"/>
-      <c r="P143" s="65"/>
-      <c r="Q143" s="67"/>
-      <c r="R143" s="67"/>
-      <c r="S143" s="66"/>
-      <c r="T143" s="65"/>
-      <c r="U143" s="67"/>
-      <c r="V143" s="67"/>
-      <c r="W143" s="66"/>
-      <c r="X143" s="65"/>
-      <c r="Y143" s="67"/>
-      <c r="Z143" s="66"/>
-      <c r="AA143" s="65"/>
-      <c r="AB143" s="66"/>
-      <c r="AC143" s="68"/>
-      <c r="AD143" s="69"/>
+      <c r="E143" s="54"/>
+      <c r="F143" s="55"/>
+      <c r="G143" s="54"/>
+      <c r="H143" s="56"/>
+      <c r="I143" s="55"/>
+      <c r="J143" s="54"/>
+      <c r="K143" s="56"/>
+      <c r="L143" s="55"/>
+      <c r="M143" s="48"/>
+      <c r="N143" s="56"/>
+      <c r="O143" s="55"/>
+      <c r="P143" s="54"/>
+      <c r="Q143" s="56"/>
+      <c r="R143" s="56"/>
+      <c r="S143" s="55"/>
+      <c r="T143" s="54"/>
+      <c r="U143" s="56"/>
+      <c r="V143" s="56"/>
+      <c r="W143" s="55"/>
+      <c r="X143" s="54"/>
+      <c r="Y143" s="56"/>
+      <c r="Z143" s="55"/>
+      <c r="AA143" s="54"/>
+      <c r="AB143" s="55"/>
+      <c r="AC143" s="46"/>
+      <c r="AD143" s="47"/>
       <c r="AE143" s="4"/>
       <c r="AF143" s="3"/>
       <c r="AG143" s="3"/>
@@ -12551,48 +12551,380 @@
     </row>
   </sheetData>
   <mergeCells count="440">
-    <mergeCell ref="BC135:BE135"/>
-    <mergeCell ref="BF135:BH135"/>
-    <mergeCell ref="BI134:BK134"/>
-    <mergeCell ref="BI135:BK135"/>
-    <mergeCell ref="BC133:BE133"/>
-    <mergeCell ref="BF133:BH133"/>
-    <mergeCell ref="AI134:AJ134"/>
-    <mergeCell ref="AK134:AL134"/>
-    <mergeCell ref="AM134:AP134"/>
-    <mergeCell ref="AQ134:AT134"/>
-    <mergeCell ref="AU134:AX134"/>
-    <mergeCell ref="AY134:BB134"/>
-    <mergeCell ref="BC134:BE134"/>
-    <mergeCell ref="BF134:BH134"/>
-    <mergeCell ref="AG126:AH126"/>
-    <mergeCell ref="AI126:AJ126"/>
-    <mergeCell ref="AK126:AM126"/>
-    <mergeCell ref="AN126:AP126"/>
-    <mergeCell ref="AW126:AX126"/>
-    <mergeCell ref="AY126:BA126"/>
-    <mergeCell ref="BB126:BD126"/>
-    <mergeCell ref="BB124:BD124"/>
-    <mergeCell ref="AG125:AH125"/>
-    <mergeCell ref="AI125:AJ125"/>
-    <mergeCell ref="AK125:AM125"/>
-    <mergeCell ref="AN125:AP125"/>
-    <mergeCell ref="AR125:AS125"/>
-    <mergeCell ref="AW125:AX125"/>
-    <mergeCell ref="AY125:BA125"/>
-    <mergeCell ref="BB125:BD125"/>
-    <mergeCell ref="AQ114:AR114"/>
-    <mergeCell ref="AS114:AV114"/>
-    <mergeCell ref="AW114:AX114"/>
-    <mergeCell ref="AY114:BA114"/>
-    <mergeCell ref="BB114:BD114"/>
-    <mergeCell ref="AQ120:AS120"/>
-    <mergeCell ref="AG124:AH124"/>
-    <mergeCell ref="AI124:AJ124"/>
-    <mergeCell ref="AK124:AM124"/>
-    <mergeCell ref="AN124:AP124"/>
-    <mergeCell ref="AW124:AX124"/>
-    <mergeCell ref="AY124:BA124"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ14:AM14"/>
+    <mergeCell ref="AN14:AQ14"/>
+    <mergeCell ref="AR14:AU14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AV14:AY14"/>
+    <mergeCell ref="AZ14:BB14"/>
+    <mergeCell ref="BC14:BE14"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ15:AM15"/>
+    <mergeCell ref="AN15:AQ15"/>
+    <mergeCell ref="AR15:AU15"/>
+    <mergeCell ref="AV15:AY15"/>
+    <mergeCell ref="AZ15:BB15"/>
+    <mergeCell ref="S96:U96"/>
+    <mergeCell ref="Y96:AH96"/>
+    <mergeCell ref="AK96:AN96"/>
+    <mergeCell ref="BC15:BE15"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AJ16:AM16"/>
+    <mergeCell ref="AN16:AQ16"/>
+    <mergeCell ref="AR16:AU16"/>
+    <mergeCell ref="AV16:AY16"/>
+    <mergeCell ref="AZ16:BB16"/>
+    <mergeCell ref="BC16:BE16"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:Q33"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="X33:AA33"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="X31:AA31"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="V39:Y39"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="X32:AA32"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:Y41"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AB49:AE49"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="AB47:AE47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="AB48:AE48"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="U59:W59"/>
+    <mergeCell ref="Z59:AI59"/>
+    <mergeCell ref="AL59:AO59"/>
+    <mergeCell ref="Z61:AI61"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="M67:R67"/>
+    <mergeCell ref="S67:V67"/>
+    <mergeCell ref="W67:Z67"/>
+    <mergeCell ref="AM65:AO65"/>
+    <mergeCell ref="AF67:AG67"/>
+    <mergeCell ref="AH67:AJ67"/>
+    <mergeCell ref="AK67:AN67"/>
+    <mergeCell ref="AO67:AQ67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="M68:R68"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="W68:Z68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="M69:R69"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="W69:Z69"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="Q75:T75"/>
+    <mergeCell ref="U75:W75"/>
+    <mergeCell ref="X75:Z75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="Q76:T76"/>
+    <mergeCell ref="U76:W76"/>
+    <mergeCell ref="X76:Z76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="Q77:T77"/>
+    <mergeCell ref="U77:W77"/>
+    <mergeCell ref="X77:Z77"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="O83:R83"/>
+    <mergeCell ref="T83:V83"/>
+    <mergeCell ref="W83:Z83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="O84:R84"/>
+    <mergeCell ref="T84:V84"/>
+    <mergeCell ref="W84:Z84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="O85:R85"/>
+    <mergeCell ref="T85:V85"/>
+    <mergeCell ref="W85:Z85"/>
+    <mergeCell ref="AV67:AW67"/>
+    <mergeCell ref="AX67:AZ67"/>
+    <mergeCell ref="AF68:AG68"/>
+    <mergeCell ref="AH68:AJ68"/>
+    <mergeCell ref="AK68:AN68"/>
+    <mergeCell ref="AO68:AQ68"/>
+    <mergeCell ref="AR68:AU68"/>
+    <mergeCell ref="AV68:AW68"/>
+    <mergeCell ref="AX68:AZ68"/>
+    <mergeCell ref="AV69:AW69"/>
+    <mergeCell ref="AX69:AZ69"/>
+    <mergeCell ref="AR73:AT73"/>
+    <mergeCell ref="AF75:AG75"/>
+    <mergeCell ref="AH75:AJ75"/>
+    <mergeCell ref="AK75:AN75"/>
+    <mergeCell ref="AO75:AQ75"/>
+    <mergeCell ref="AR75:AU75"/>
+    <mergeCell ref="AV75:AW75"/>
+    <mergeCell ref="AX75:AZ75"/>
+    <mergeCell ref="AL73:AN73"/>
+    <mergeCell ref="AT85:AU85"/>
+    <mergeCell ref="AV85:AW85"/>
+    <mergeCell ref="AX85:AZ85"/>
+    <mergeCell ref="BA85:BC85"/>
+    <mergeCell ref="AF86:AG86"/>
+    <mergeCell ref="AH86:AI86"/>
+    <mergeCell ref="AJ86:AL86"/>
+    <mergeCell ref="AM86:AO86"/>
+    <mergeCell ref="AF76:AG76"/>
+    <mergeCell ref="AH76:AJ76"/>
+    <mergeCell ref="AK76:AN76"/>
+    <mergeCell ref="AO76:AQ76"/>
+    <mergeCell ref="AR76:AU76"/>
+    <mergeCell ref="AV76:AW76"/>
+    <mergeCell ref="AX76:AZ76"/>
+    <mergeCell ref="AF77:AG77"/>
+    <mergeCell ref="AH77:AJ77"/>
+    <mergeCell ref="AK77:AN77"/>
+    <mergeCell ref="AO77:AQ77"/>
+    <mergeCell ref="AR77:AU77"/>
+    <mergeCell ref="AV77:AW77"/>
+    <mergeCell ref="AX77:AZ77"/>
+    <mergeCell ref="AF85:AG85"/>
+    <mergeCell ref="AT86:AU86"/>
+    <mergeCell ref="AV86:AW86"/>
+    <mergeCell ref="AX86:AZ86"/>
+    <mergeCell ref="BA86:BC86"/>
+    <mergeCell ref="AT87:AU87"/>
+    <mergeCell ref="AV87:AW87"/>
+    <mergeCell ref="AX87:AZ87"/>
+    <mergeCell ref="BA87:BC87"/>
+    <mergeCell ref="AQ86:AR86"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G108:K108"/>
+    <mergeCell ref="L108:Q108"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="AP81:AR81"/>
+    <mergeCell ref="D93:J93"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="Q25:Z25"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AF87:AG87"/>
+    <mergeCell ref="AH87:AI87"/>
+    <mergeCell ref="AJ87:AL87"/>
+    <mergeCell ref="AM87:AO87"/>
+    <mergeCell ref="AH85:AI85"/>
+    <mergeCell ref="AJ85:AL85"/>
+    <mergeCell ref="AM85:AO85"/>
+    <mergeCell ref="AF69:AG69"/>
+    <mergeCell ref="AH69:AJ69"/>
+    <mergeCell ref="AK69:AN69"/>
+    <mergeCell ref="AO69:AQ69"/>
+    <mergeCell ref="AR69:AU69"/>
+    <mergeCell ref="AR67:AU67"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="J114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P114:S114"/>
+    <mergeCell ref="T114:V114"/>
+    <mergeCell ref="W114:Y114"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="J115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G106:K106"/>
+    <mergeCell ref="L106:Q106"/>
+    <mergeCell ref="R106:U106"/>
+    <mergeCell ref="V106:Y106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="L107:Q107"/>
+    <mergeCell ref="R107:U107"/>
+    <mergeCell ref="V107:Y107"/>
+    <mergeCell ref="T115:V115"/>
+    <mergeCell ref="W115:Y115"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="J116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P116:S116"/>
+    <mergeCell ref="T116:V116"/>
+    <mergeCell ref="W116:Y116"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="M112:O112"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="S122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="J123:M123"/>
+    <mergeCell ref="N123:Q123"/>
+    <mergeCell ref="S123:U123"/>
+    <mergeCell ref="V123:Y123"/>
+    <mergeCell ref="Q98:V98"/>
+    <mergeCell ref="X98:AC98"/>
+    <mergeCell ref="AE98:AG98"/>
+    <mergeCell ref="AI98:AL98"/>
+    <mergeCell ref="AL104:AN104"/>
+    <mergeCell ref="AH110:AI110"/>
+    <mergeCell ref="AJ110:AL110"/>
+    <mergeCell ref="AM110:AP110"/>
+    <mergeCell ref="AH114:AI114"/>
+    <mergeCell ref="AJ114:AL114"/>
+    <mergeCell ref="AM114:AP114"/>
+    <mergeCell ref="AN98:AR98"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="J132:L132"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="O132:R132"/>
+    <mergeCell ref="S132:V132"/>
+    <mergeCell ref="W132:Y132"/>
+    <mergeCell ref="Z132:AA132"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="J124:M124"/>
+    <mergeCell ref="N124:Q124"/>
+    <mergeCell ref="S124:U124"/>
+    <mergeCell ref="V124:Y124"/>
+    <mergeCell ref="J129:L129"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="J131:L131"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="O131:R131"/>
+    <mergeCell ref="S131:V131"/>
+    <mergeCell ref="W131:Y131"/>
+    <mergeCell ref="Z131:AA131"/>
+    <mergeCell ref="J139:L139"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="J141:L141"/>
+    <mergeCell ref="P141:S141"/>
+    <mergeCell ref="T141:W141"/>
+    <mergeCell ref="X141:Z141"/>
+    <mergeCell ref="AA141:AB141"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="J133:L133"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="O133:R133"/>
+    <mergeCell ref="S133:V133"/>
+    <mergeCell ref="W133:Y133"/>
+    <mergeCell ref="Z133:AA133"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="J142:L142"/>
+    <mergeCell ref="P142:S142"/>
+    <mergeCell ref="T142:W142"/>
+    <mergeCell ref="X142:Z142"/>
+    <mergeCell ref="AA142:AB142"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="J143:L143"/>
+    <mergeCell ref="P143:S143"/>
+    <mergeCell ref="T143:W143"/>
+    <mergeCell ref="X143:Z143"/>
+    <mergeCell ref="AA143:AB143"/>
+    <mergeCell ref="M142:O142"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="AY109:BA109"/>
+    <mergeCell ref="BB109:BD109"/>
+    <mergeCell ref="AT104:AV104"/>
+    <mergeCell ref="M141:O141"/>
+    <mergeCell ref="AH108:AI108"/>
+    <mergeCell ref="AQ108:AR108"/>
+    <mergeCell ref="AW108:AX108"/>
+    <mergeCell ref="AY108:BA108"/>
+    <mergeCell ref="AQ131:AS131"/>
+    <mergeCell ref="AY131:BA131"/>
+    <mergeCell ref="AI133:AJ133"/>
+    <mergeCell ref="AK133:AL133"/>
+    <mergeCell ref="AM133:AP133"/>
+    <mergeCell ref="AQ133:AT133"/>
+    <mergeCell ref="AU133:AX133"/>
+    <mergeCell ref="AY133:BB133"/>
+    <mergeCell ref="AI135:AJ135"/>
+    <mergeCell ref="AK135:AL135"/>
+    <mergeCell ref="AM135:AP135"/>
+    <mergeCell ref="AQ135:AT135"/>
+    <mergeCell ref="AU135:AX135"/>
+    <mergeCell ref="AY135:BB135"/>
+    <mergeCell ref="M120:O120"/>
+    <mergeCell ref="P115:S115"/>
     <mergeCell ref="AQ110:AR110"/>
     <mergeCell ref="AS110:AV110"/>
     <mergeCell ref="AW110:AX110"/>
@@ -12617,380 +12949,48 @@
     <mergeCell ref="AQ109:AR109"/>
     <mergeCell ref="AS109:AV109"/>
     <mergeCell ref="AW109:AX109"/>
-    <mergeCell ref="AY109:BA109"/>
-    <mergeCell ref="BB109:BD109"/>
-    <mergeCell ref="AT104:AV104"/>
-    <mergeCell ref="M141:O141"/>
-    <mergeCell ref="AH108:AI108"/>
-    <mergeCell ref="AQ108:AR108"/>
-    <mergeCell ref="AW108:AX108"/>
-    <mergeCell ref="AY108:BA108"/>
-    <mergeCell ref="AQ131:AS131"/>
-    <mergeCell ref="AY131:BA131"/>
-    <mergeCell ref="AI133:AJ133"/>
-    <mergeCell ref="AK133:AL133"/>
-    <mergeCell ref="AM133:AP133"/>
-    <mergeCell ref="AQ133:AT133"/>
-    <mergeCell ref="AU133:AX133"/>
-    <mergeCell ref="AY133:BB133"/>
-    <mergeCell ref="AI135:AJ135"/>
-    <mergeCell ref="AK135:AL135"/>
-    <mergeCell ref="AM135:AP135"/>
-    <mergeCell ref="AQ135:AT135"/>
-    <mergeCell ref="AU135:AX135"/>
-    <mergeCell ref="AY135:BB135"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="J142:L142"/>
-    <mergeCell ref="P142:S142"/>
-    <mergeCell ref="T142:W142"/>
-    <mergeCell ref="X142:Z142"/>
-    <mergeCell ref="AA142:AB142"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="J143:L143"/>
-    <mergeCell ref="P143:S143"/>
-    <mergeCell ref="T143:W143"/>
-    <mergeCell ref="X143:Z143"/>
-    <mergeCell ref="AA143:AB143"/>
-    <mergeCell ref="M142:O142"/>
-    <mergeCell ref="N143:O143"/>
-    <mergeCell ref="J139:L139"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="J141:L141"/>
-    <mergeCell ref="P141:S141"/>
-    <mergeCell ref="T141:W141"/>
-    <mergeCell ref="X141:Z141"/>
-    <mergeCell ref="AA141:AB141"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="J133:L133"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="O133:R133"/>
-    <mergeCell ref="S133:V133"/>
-    <mergeCell ref="W133:Y133"/>
-    <mergeCell ref="Z133:AA133"/>
-    <mergeCell ref="J129:L129"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="J131:L131"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="O131:R131"/>
-    <mergeCell ref="S131:V131"/>
-    <mergeCell ref="W131:Y131"/>
-    <mergeCell ref="Z131:AA131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="J132:L132"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="O132:R132"/>
-    <mergeCell ref="S132:V132"/>
-    <mergeCell ref="W132:Y132"/>
-    <mergeCell ref="Z132:AA132"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="J124:M124"/>
-    <mergeCell ref="N124:Q124"/>
-    <mergeCell ref="S124:U124"/>
-    <mergeCell ref="V124:Y124"/>
-    <mergeCell ref="Q98:V98"/>
-    <mergeCell ref="X98:AC98"/>
-    <mergeCell ref="AE98:AG98"/>
-    <mergeCell ref="AI98:AL98"/>
-    <mergeCell ref="AL104:AN104"/>
-    <mergeCell ref="AH110:AI110"/>
-    <mergeCell ref="AJ110:AL110"/>
-    <mergeCell ref="AM110:AP110"/>
-    <mergeCell ref="AH114:AI114"/>
-    <mergeCell ref="AJ114:AL114"/>
-    <mergeCell ref="AM114:AP114"/>
-    <mergeCell ref="M120:O120"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="S122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="J123:M123"/>
-    <mergeCell ref="N123:Q123"/>
-    <mergeCell ref="S123:U123"/>
-    <mergeCell ref="V123:Y123"/>
-    <mergeCell ref="P115:S115"/>
-    <mergeCell ref="T115:V115"/>
-    <mergeCell ref="W115:Y115"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="J116:M116"/>
-    <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P116:S116"/>
-    <mergeCell ref="T116:V116"/>
-    <mergeCell ref="W116:Y116"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="G106:K106"/>
-    <mergeCell ref="L106:Q106"/>
-    <mergeCell ref="R106:U106"/>
-    <mergeCell ref="V106:Y106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="L107:Q107"/>
-    <mergeCell ref="R107:U107"/>
-    <mergeCell ref="V107:Y107"/>
-    <mergeCell ref="M112:O112"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="J114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P114:S114"/>
-    <mergeCell ref="T114:V114"/>
-    <mergeCell ref="W114:Y114"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="J115:M115"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="G108:K108"/>
-    <mergeCell ref="L108:Q108"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="AP81:AR81"/>
-    <mergeCell ref="D93:J93"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="Q25:Z25"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AF87:AG87"/>
-    <mergeCell ref="AH87:AI87"/>
-    <mergeCell ref="AJ87:AL87"/>
-    <mergeCell ref="AM87:AO87"/>
-    <mergeCell ref="AT86:AU86"/>
-    <mergeCell ref="AV86:AW86"/>
-    <mergeCell ref="AX86:AZ86"/>
-    <mergeCell ref="BA86:BC86"/>
-    <mergeCell ref="AT87:AU87"/>
-    <mergeCell ref="AV87:AW87"/>
-    <mergeCell ref="AX87:AZ87"/>
-    <mergeCell ref="BA87:BC87"/>
-    <mergeCell ref="AQ86:AR86"/>
-    <mergeCell ref="AH85:AI85"/>
-    <mergeCell ref="AJ85:AL85"/>
-    <mergeCell ref="AM85:AO85"/>
-    <mergeCell ref="AT85:AU85"/>
-    <mergeCell ref="AV85:AW85"/>
-    <mergeCell ref="AX85:AZ85"/>
-    <mergeCell ref="BA85:BC85"/>
-    <mergeCell ref="AF86:AG86"/>
-    <mergeCell ref="AH86:AI86"/>
-    <mergeCell ref="AJ86:AL86"/>
-    <mergeCell ref="AM86:AO86"/>
-    <mergeCell ref="AF76:AG76"/>
-    <mergeCell ref="AH76:AJ76"/>
-    <mergeCell ref="AK76:AN76"/>
-    <mergeCell ref="AO76:AQ76"/>
-    <mergeCell ref="AR76:AU76"/>
-    <mergeCell ref="AV76:AW76"/>
-    <mergeCell ref="AX76:AZ76"/>
-    <mergeCell ref="AF77:AG77"/>
-    <mergeCell ref="AH77:AJ77"/>
-    <mergeCell ref="AK77:AN77"/>
-    <mergeCell ref="AO77:AQ77"/>
-    <mergeCell ref="AR77:AU77"/>
-    <mergeCell ref="AV77:AW77"/>
-    <mergeCell ref="AX77:AZ77"/>
-    <mergeCell ref="AF69:AG69"/>
-    <mergeCell ref="AH69:AJ69"/>
-    <mergeCell ref="AK69:AN69"/>
-    <mergeCell ref="AO69:AQ69"/>
-    <mergeCell ref="AR69:AU69"/>
-    <mergeCell ref="AV69:AW69"/>
-    <mergeCell ref="AX69:AZ69"/>
-    <mergeCell ref="AR73:AT73"/>
-    <mergeCell ref="AF75:AG75"/>
-    <mergeCell ref="AH75:AJ75"/>
-    <mergeCell ref="AK75:AN75"/>
-    <mergeCell ref="AO75:AQ75"/>
-    <mergeCell ref="AR75:AU75"/>
-    <mergeCell ref="AV75:AW75"/>
-    <mergeCell ref="AX75:AZ75"/>
-    <mergeCell ref="AL73:AN73"/>
-    <mergeCell ref="AR67:AU67"/>
-    <mergeCell ref="AV67:AW67"/>
-    <mergeCell ref="AX67:AZ67"/>
-    <mergeCell ref="AF68:AG68"/>
-    <mergeCell ref="AH68:AJ68"/>
-    <mergeCell ref="AK68:AN68"/>
-    <mergeCell ref="AO68:AQ68"/>
-    <mergeCell ref="AR68:AU68"/>
-    <mergeCell ref="AV68:AW68"/>
-    <mergeCell ref="AX68:AZ68"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="O84:R84"/>
-    <mergeCell ref="T84:V84"/>
-    <mergeCell ref="W84:Z84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="O85:R85"/>
-    <mergeCell ref="T85:V85"/>
-    <mergeCell ref="W85:Z85"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="Q77:T77"/>
-    <mergeCell ref="U77:W77"/>
-    <mergeCell ref="X77:Z77"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="O83:R83"/>
-    <mergeCell ref="T83:V83"/>
-    <mergeCell ref="W83:Z83"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="Q75:T75"/>
-    <mergeCell ref="U75:W75"/>
-    <mergeCell ref="X75:Z75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="Q76:T76"/>
-    <mergeCell ref="U76:W76"/>
-    <mergeCell ref="X76:Z76"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="M68:R68"/>
-    <mergeCell ref="S68:V68"/>
-    <mergeCell ref="W68:Z68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="M69:R69"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="W69:Z69"/>
-    <mergeCell ref="AF85:AG85"/>
-    <mergeCell ref="AN98:AR98"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="U59:W59"/>
-    <mergeCell ref="Z59:AI59"/>
-    <mergeCell ref="AL59:AO59"/>
-    <mergeCell ref="Z61:AI61"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="M67:R67"/>
-    <mergeCell ref="S67:V67"/>
-    <mergeCell ref="W67:Z67"/>
-    <mergeCell ref="AM65:AO65"/>
-    <mergeCell ref="AF67:AG67"/>
-    <mergeCell ref="AH67:AJ67"/>
-    <mergeCell ref="AK67:AN67"/>
-    <mergeCell ref="AO67:AQ67"/>
-    <mergeCell ref="AB49:AE49"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="AB47:AE47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="AB48:AE48"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:Y41"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="T49:W49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:Y40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="V39:Y39"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:Q32"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="X32:AA32"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:Q33"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="X33:AA33"/>
-    <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="X31:AA31"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="S96:U96"/>
-    <mergeCell ref="Y96:AH96"/>
-    <mergeCell ref="AK96:AN96"/>
-    <mergeCell ref="BC15:BE15"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AJ16:AM16"/>
-    <mergeCell ref="AN16:AQ16"/>
-    <mergeCell ref="AR16:AU16"/>
-    <mergeCell ref="AV16:AY16"/>
-    <mergeCell ref="AZ16:BB16"/>
-    <mergeCell ref="BC16:BE16"/>
-    <mergeCell ref="AV14:AY14"/>
-    <mergeCell ref="AZ14:BB14"/>
-    <mergeCell ref="BC14:BE14"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AJ15:AM15"/>
-    <mergeCell ref="AN15:AQ15"/>
-    <mergeCell ref="AR15:AU15"/>
-    <mergeCell ref="AV15:AY15"/>
-    <mergeCell ref="AZ15:BB15"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AJ14:AM14"/>
-    <mergeCell ref="AN14:AQ14"/>
-    <mergeCell ref="AR14:AU14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AQ114:AR114"/>
+    <mergeCell ref="AS114:AV114"/>
+    <mergeCell ref="AW114:AX114"/>
+    <mergeCell ref="AY114:BA114"/>
+    <mergeCell ref="BB114:BD114"/>
+    <mergeCell ref="AQ120:AS120"/>
+    <mergeCell ref="AG124:AH124"/>
+    <mergeCell ref="AI124:AJ124"/>
+    <mergeCell ref="AK124:AM124"/>
+    <mergeCell ref="AN124:AP124"/>
+    <mergeCell ref="AW124:AX124"/>
+    <mergeCell ref="AY124:BA124"/>
+    <mergeCell ref="AG126:AH126"/>
+    <mergeCell ref="AI126:AJ126"/>
+    <mergeCell ref="AK126:AM126"/>
+    <mergeCell ref="AN126:AP126"/>
+    <mergeCell ref="AW126:AX126"/>
+    <mergeCell ref="AY126:BA126"/>
+    <mergeCell ref="BB126:BD126"/>
+    <mergeCell ref="BB124:BD124"/>
+    <mergeCell ref="AG125:AH125"/>
+    <mergeCell ref="AI125:AJ125"/>
+    <mergeCell ref="AK125:AM125"/>
+    <mergeCell ref="AN125:AP125"/>
+    <mergeCell ref="AR125:AS125"/>
+    <mergeCell ref="AW125:AX125"/>
+    <mergeCell ref="AY125:BA125"/>
+    <mergeCell ref="BB125:BD125"/>
+    <mergeCell ref="BC135:BE135"/>
+    <mergeCell ref="BF135:BH135"/>
+    <mergeCell ref="BI134:BK134"/>
+    <mergeCell ref="BI135:BK135"/>
+    <mergeCell ref="BC133:BE133"/>
+    <mergeCell ref="BF133:BH133"/>
+    <mergeCell ref="AI134:AJ134"/>
+    <mergeCell ref="AK134:AL134"/>
+    <mergeCell ref="AM134:AP134"/>
+    <mergeCell ref="AQ134:AT134"/>
+    <mergeCell ref="AU134:AX134"/>
+    <mergeCell ref="AY134:BB134"/>
+    <mergeCell ref="BC134:BE134"/>
+    <mergeCell ref="BF134:BH134"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
